--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\config-community-testing-master\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A93B6D-B3AE-406A-B1C1-C8243A606DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="legend" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="316">
   <si>
     <t>type</t>
   </si>
@@ -644,9 +645,18 @@
     <t>Unintended weight loss</t>
   </si>
   <si>
+    <t>bmi_sy</t>
+  </si>
+  <si>
+    <t>Body mass index (BMI) less than 18.5</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
+    <t>Inconclusive</t>
+  </si>
+  <si>
     <t>SAMPLE COLLECTION</t>
   </si>
   <si>
@@ -680,6 +690,9 @@
     <t xml:space="preserve">COVID-19 test result </t>
   </si>
   <si>
+    <t>(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${tb}) = 0)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0) </t>
   </si>
   <si>
@@ -710,15 +723,12 @@
     <t>selected(${tb},'weight_sy')</t>
   </si>
   <si>
-    <t>db:trace_contact</t>
+    <t>selected(${tb},'bmi_sy')</t>
   </si>
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t>What is the traveller's name?</t>
-  </si>
-  <si>
     <t>db-object</t>
   </si>
   <si>
@@ -1016,6 +1026,9 @@
     <t>Productive cough of any duration</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t xml:space="preserve">National ID Number:${national_id} </t>
   </si>
   <si>
@@ -1037,43 +1050,25 @@
     <t>Test for COVID-19</t>
   </si>
   <si>
-    <t>Refer the case to the link HF for RT-PCR testing and further investigation</t>
-  </si>
-  <si>
-    <t>Forward case to the link HF for testing and follow-up by the TB programme</t>
-  </si>
-  <si>
-    <t>(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${tb}) = 0) or (count-selected(${cov}) =0 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0)</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>rpttest</t>
-  </si>
-  <si>
-    <t>cov_test_rpt</t>
-  </si>
-  <si>
-    <t>REPEAT TESTING</t>
-  </si>
-  <si>
-    <t>Repeat the COVID-19 and update the result</t>
-  </si>
-  <si>
-    <t>selected(${cov_test},'Invalid')</t>
-  </si>
-  <si>
-    <t>user_grp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(count-selected(${cov}) = 0 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0) </t>
+    <t xml:space="preserve">${none}='DOES NOT HAVE ANY SYMPTOMS FOR COVID-19 OR TB' </t>
+  </si>
+  <si>
+    <t>Case will be forwarded to the link facility for testing and follow-up by the TB programme</t>
+  </si>
+  <si>
+    <t>Refer the case for RT-PCR testing</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>What is the client's name?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -1178,7 +1173,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,6 +1228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1247,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1302,6 +1303,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1704,40 +1706,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z656"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z653"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="71" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1797,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1835,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1871,7 +1873,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1907,7 +1909,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1940,7 +1942,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1974,7 +1976,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -2004,7 +2006,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2038,20 +2040,20 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2073,7 +2075,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2108,15 +2110,15 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2143,15 +2145,15 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2178,15 +2180,15 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2213,15 +2215,15 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2248,15 +2250,15 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2283,15 +2285,15 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2318,15 +2320,15 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2353,15 +2355,15 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -2388,15 +2390,15 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2423,15 +2425,15 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2458,15 +2460,15 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2493,7 +2495,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2528,15 +2530,15 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2563,15 +2565,15 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2598,15 +2600,15 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2633,15 +2635,15 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2668,15 +2670,15 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2703,15 +2705,15 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2738,15 +2740,15 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2773,15 +2775,15 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2808,7 +2810,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>22</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2843,15 +2845,15 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2878,15 +2880,15 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2913,15 +2915,15 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2948,15 +2950,15 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2983,15 +2985,15 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -3018,15 +3020,15 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -3053,15 +3055,15 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3088,15 +3090,15 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3123,15 +3125,15 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3158,15 +3160,15 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -3193,7 +3195,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -3223,7 +3225,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>29</v>
       </c>
@@ -3253,7 +3255,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>32</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -3287,7 +3289,7 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
@@ -3321,7 +3323,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>32</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>32</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3390,15 +3392,15 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3424,7 +3426,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -3432,13 +3434,13 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
@@ -3446,13 +3448,13 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
@@ -3460,13 +3462,13 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -3496,7 +3498,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3524,7 +3526,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>17</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3560,12 +3562,12 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>140</v>
@@ -3594,7 +3596,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>126</v>
       </c>
@@ -3627,7 +3629,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>128</v>
       </c>
@@ -3660,7 +3662,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>130</v>
       </c>
@@ -3693,7 +3695,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>48</v>
       </c>
@@ -3729,7 +3731,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>48</v>
       </c>
@@ -3765,7 +3767,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>48</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>48</v>
       </c>
@@ -3809,7 +3811,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="40" t="s">
@@ -3837,12 +3839,12 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>148</v>
@@ -3873,7 +3875,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>29</v>
       </c>
@@ -3903,7 +3905,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -3931,7 +3933,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -3959,15 +3961,15 @@
       <c r="Y68" s="22"/>
       <c r="Z68" s="22"/>
     </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -3995,15 +3997,15 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
     </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="40" t="s">
@@ -4031,15 +4033,15 @@
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
     </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="40" t="s">
@@ -4067,15 +4069,15 @@
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="40" t="s">
@@ -4103,19 +4105,19 @@
       <c r="Y72" s="22"/>
       <c r="Z72" s="22"/>
     </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="40" t="s">
-        <v>317</v>
+      <c r="E73" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -4139,7 +4141,7 @@
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>29</v>
       </c>
@@ -4169,7 +4171,7 @@
       <c r="Y74" s="22"/>
       <c r="Z74" s="22"/>
     </row>
-    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -4197,7 +4199,7 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -4225,12 +4227,12 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:26" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>53</v>
@@ -4239,12 +4241,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
@@ -4252,10 +4254,10 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>32</v>
       </c>
@@ -4268,30 +4270,30 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="17"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>55</v>
@@ -4307,7 +4309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>57</v>
       </c>
@@ -4320,17 +4322,17 @@
       <c r="D82" s="21"/>
       <c r="E82" s="9"/>
       <c r="F82" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
     </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -4342,19 +4344,19 @@
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="38" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F85" s="38" t="s">
         <v>21</v>
@@ -4364,43 +4366,43 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
@@ -4408,7 +4410,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>29</v>
       </c>
@@ -4422,7 +4424,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -4434,15 +4436,15 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -4454,19 +4456,19 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="40" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -4474,7 +4476,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>29</v>
       </c>
@@ -4488,7 +4490,7 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4500,302 +4502,384 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
+    <row r="94" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
+      <c r="B94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+    </row>
+    <row r="95" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="B95" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+    </row>
+    <row r="96" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-    </row>
-    <row r="99" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="C96" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+    </row>
+    <row r="97" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-    </row>
-    <row r="100" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+      <c r="B97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
-      <c r="R100" s="25"/>
-      <c r="S100" s="25"/>
-      <c r="T100" s="25"/>
-      <c r="U100" s="25"/>
-      <c r="V100" s="25"/>
-      <c r="W100" s="25"/>
-      <c r="X100" s="25"/>
-      <c r="Y100" s="25"/>
-    </row>
-    <row r="101" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="B98" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="B99" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="B100" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E103" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="B101" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="28"/>
+      <c r="S101" s="28"/>
+      <c r="T101" s="28"/>
+      <c r="U101" s="28"/>
+      <c r="V101" s="28"/>
+      <c r="W101" s="28"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
+    </row>
+    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+      <c r="B102" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+    </row>
+    <row r="103" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="28"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="28"/>
-      <c r="S105" s="28"/>
-      <c r="T105" s="28"/>
-      <c r="U105" s="28"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-    </row>
-    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+    </row>
+    <row r="104" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+    </row>
+    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="16"/>
+      <c r="W105" s="16"/>
+      <c r="X105" s="16"/>
+      <c r="Y105" s="16"/>
+    </row>
+    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F106" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G106" s="16"/>
@@ -4818,19 +4902,19 @@
       <c r="X106" s="16"/>
       <c r="Y106" s="16"/>
     </row>
-    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="17" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>73</v>
@@ -4855,19 +4939,19 @@
       <c r="X107" s="16"/>
       <c r="Y107" s="16"/>
     </row>
-    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B108" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>73</v>
@@ -4892,19 +4976,19 @@
       <c r="X108" s="16"/>
       <c r="Y108" s="16"/>
     </row>
-    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B109" s="39" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>73</v>
@@ -4929,19 +5013,19 @@
       <c r="X109" s="16"/>
       <c r="Y109" s="16"/>
     </row>
-    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B110" s="39" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>73</v>
@@ -4966,19 +5050,19 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
     </row>
-    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>73</v>
@@ -5003,19 +5087,19 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="16"/>
     </row>
-    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>73</v>
@@ -5040,19 +5124,19 @@
       <c r="X112" s="16"/>
       <c r="Y112" s="16"/>
     </row>
-    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>73</v>
@@ -5077,19 +5161,19 @@
       <c r="X113" s="16"/>
       <c r="Y113" s="16"/>
     </row>
-    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>73</v>
@@ -5114,19 +5198,19 @@
       <c r="X114" s="16"/>
       <c r="Y114" s="16"/>
     </row>
-    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B115" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="39" t="s">
-        <v>167</v>
+      <c r="B115" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>73</v>
@@ -5151,19 +5235,19 @@
       <c r="X115" s="16"/>
       <c r="Y115" s="16"/>
     </row>
-    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" s="39" t="s">
-        <v>169</v>
+      <c r="B116" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="17" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>73</v>
@@ -5188,19 +5272,19 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
     </row>
-    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" s="39" t="s">
-        <v>75</v>
+      <c r="B117" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>73</v>
@@ -5225,19 +5309,19 @@
       <c r="X117" s="16"/>
       <c r="Y117" s="16"/>
     </row>
-    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C118" s="39" t="s">
-        <v>170</v>
+      <c r="B118" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="17" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="F118" s="16" t="s">
         <v>73</v>
@@ -5262,30 +5346,28 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
     </row>
-    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
+      <c r="B119" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
       <c r="N119" s="16"/>
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
@@ -5299,665 +5381,556 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
     </row>
-    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-      <c r="U120" s="16"/>
-      <c r="V120" s="16"/>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-    </row>
-    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
-      <c r="T121" s="16"/>
-      <c r="U121" s="16"/>
-      <c r="V121" s="16"/>
-      <c r="W121" s="16"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="16"/>
-    </row>
-    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
-      <c r="T122" s="16"/>
-      <c r="U122" s="16"/>
-      <c r="V122" s="16"/>
-      <c r="W122" s="16"/>
-      <c r="X122" s="16"/>
-      <c r="Y122" s="16"/>
-    </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A96">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A97">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -5968,26 +5941,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="24" width="8.85546875" customWidth="1"/>
-    <col min="25" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="24" width="8.88671875" customWidth="1"/>
+    <col min="25" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
@@ -6023,7 +5996,7 @@
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
@@ -6055,7 +6028,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>77</v>
       </c>
@@ -6087,7 +6060,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>80</v>
       </c>
@@ -6121,7 +6094,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>80</v>
       </c>
@@ -6155,15 +6128,15 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6189,7 +6162,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -6200,7 +6173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -6211,7 +6184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -6222,7 +6195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -6233,7 +6206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -6244,7 +6217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -6255,7 +6228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -6266,7 +6239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -6277,7 +6250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -6288,7 +6261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -6299,7 +6272,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -6310,7 +6283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -6321,7 +6294,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -6332,7 +6305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>150</v>
       </c>
@@ -6340,10 +6313,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>150</v>
       </c>
@@ -6354,7 +6327,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>150</v>
       </c>
@@ -6365,7 +6338,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>155</v>
       </c>
@@ -6376,7 +6349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>155</v>
       </c>
@@ -6387,7 +6360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>155</v>
       </c>
@@ -6398,7 +6371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>155</v>
       </c>
@@ -6409,7 +6382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>155</v>
       </c>
@@ -6420,7 +6393,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>155</v>
       </c>
@@ -6431,7 +6404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>155</v>
       </c>
@@ -6442,7 +6415,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>155</v>
       </c>
@@ -6453,7 +6426,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>155</v>
       </c>
@@ -6464,7 +6437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>155</v>
       </c>
@@ -6475,7 +6448,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>171</v>
       </c>
@@ -6486,7 +6459,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>171</v>
       </c>
@@ -6497,48 +6470,65 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="C37" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C39" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="43" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C40" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6547,27 +6537,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -6609,16 +6599,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="45">
         <f ca="1">NOW()</f>
-        <v>44777.622260995369</v>
+        <v>44811.477646527776</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>115</v>
@@ -6640,986 +6630,986 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7627,24 +7617,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="103.140625" customWidth="1"/>
-    <col min="6" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="5" width="103.109375" customWidth="1"/>
+    <col min="6" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>118</v>
       </c>
@@ -7667,7 +7657,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -7684,7 +7674,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>121</v>
       </c>
@@ -7703,7 +7693,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>122</v>
       </c>
@@ -7722,7 +7712,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>123</v>
       </c>
@@ -7741,7 +7731,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>124</v>
       </c>
@@ -7760,7 +7750,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>125</v>
       </c>
@@ -7779,986 +7769,986 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\config-community-testing-master\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="316">
   <si>
     <t>type</t>
   </si>
@@ -1710,8 +1710,8 @@
   <dimension ref="A1:Z653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4547,9 +4547,7 @@
       <c r="C95" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="D95" s="6"/>
       <c r="E95" s="3"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -6608,7 +6606,7 @@
       </c>
       <c r="C2" s="45">
         <f ca="1">NOW()</f>
-        <v>44811.477646527776</v>
+        <v>44811.491866319448</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>115</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB2C4A-8565-40E8-886F-30632413A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119C31C-E435-4CF0-A596-DAE183CB7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="306">
   <si>
     <t>type</t>
   </si>
@@ -1670,8 +1670,8 @@
   <dimension ref="A1:Z656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1867,9 @@
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1898,7 +1900,9 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4550,9 +4554,7 @@
       <c r="C99" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D99" s="5"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -6423,7 +6425,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.023938541664</v>
+        <v>44879.030570486109</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119C31C-E435-4CF0-A596-DAE183CB7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB42BB1-F135-4F9D-981C-34507D82F9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
   <si>
     <t>type</t>
   </si>
@@ -608,9 +608,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>SAMPLE COLLECTION</t>
-  </si>
-  <si>
     <t>sput_nasal</t>
   </si>
   <si>
@@ -941,9 +938,6 @@
     <t>RT-PCR TESTING</t>
   </si>
   <si>
-    <t>Ag-RDT TESTING</t>
-  </si>
-  <si>
     <t>Specimen idenfification: **${specimen_id}**</t>
   </si>
   <si>
@@ -995,12 +989,6 @@
     <t xml:space="preserve">${none}='DOES NOT HAVE ANY SYMPTOMS FOR COVID-19 OR TB' </t>
   </si>
   <si>
-    <t>Refer the case to the link HF for RT-PCR testing and further investigation</t>
-  </si>
-  <si>
-    <t>Forward case to the link HF for testing and follow-up by the TB programme</t>
-  </si>
-  <si>
     <t>(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${tb}) = 0) or (count-selected(${cov}) =0 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0)</t>
   </si>
   <si>
@@ -1032,6 +1020,60 @@
   </si>
   <si>
     <t>Door-to-Door testing</t>
+  </si>
+  <si>
+    <t>Refer the case to the link HF for COVID-19 RT-PCR testing and further investigation</t>
+  </si>
+  <si>
+    <t>select_one test_place</t>
+  </si>
+  <si>
+    <t>test_place</t>
+  </si>
+  <si>
+    <t>Is the sample collection tacking place at the household or at a lab within a health facility</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>hf_lab</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Lab within HF</t>
+  </si>
+  <si>
+    <t>SAMPLING PLACE</t>
+  </si>
+  <si>
+    <t>${test_place}='household'</t>
+  </si>
+  <si>
+    <t>SAMPLE COLLECTION HH</t>
+  </si>
+  <si>
+    <t>SAMPLE COLLECTION LAB</t>
+  </si>
+  <si>
+    <t>Test for COVID-19 and test/refer for TB testing</t>
+  </si>
+  <si>
+    <t>${test_place}='hf_lab'</t>
+  </si>
+  <si>
+    <t>Ag-RDT TESTING AT HH</t>
+  </si>
+  <si>
+    <t>Ag-RDT TESTING AT HF</t>
+  </si>
+  <si>
+    <t>Forward case to the link HF for follow-up by the TB programme</t>
+  </si>
+  <si>
+    <t>Test for TB</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1141,8 +1183,15 @@
       <name val="Century Schoolbook"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1203,6 +1252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1217,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1265,12 +1320,375 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1667,11 +2085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z656"/>
+  <dimension ref="A1:Z670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,18 +2411,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2034,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2066,10 +2484,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2101,10 +2519,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2136,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2171,10 +2589,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2206,10 +2624,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2241,10 +2659,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2276,10 +2694,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2311,10 +2729,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2346,10 +2764,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2381,10 +2799,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2416,10 +2834,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2454,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2486,10 +2904,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2521,10 +2939,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2556,10 +2974,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2591,10 +3009,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2626,10 +3044,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2661,10 +3079,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2696,10 +3114,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2731,10 +3149,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2769,7 +3187,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2801,10 +3219,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2836,10 +3254,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2871,10 +3289,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2906,10 +3324,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2941,10 +3359,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2976,10 +3394,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3011,10 +3429,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3046,10 +3464,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3081,10 +3499,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3116,10 +3534,10 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3212,7 +3630,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3307,7 +3725,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3340,10 +3758,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3377,10 +3795,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -3391,10 +3809,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -3405,10 +3823,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3477,7 +3895,7 @@
         <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3510,7 +3928,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>127</v>
@@ -3754,7 +4172,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="33" t="s">
@@ -3787,7 +4205,7 @@
         <v>48</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>135</v>
@@ -3877,83 +4295,79 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="15"/>
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>164</v>
+      <c r="A69" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>290</v>
-      </c>
+      <c r="A70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="33" t="s">
-        <v>120</v>
-      </c>
+      <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -3977,19 +4391,11 @@
       <c r="Z70" s="15"/>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>290</v>
-      </c>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="33" t="s">
-        <v>122</v>
-      </c>
+      <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4013,20 +4419,22 @@
       <c r="Z71" s="15"/>
     </row>
     <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="32" t="s">
+      <c r="A72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="32" t="s">
-        <v>291</v>
+      <c r="C72" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="D72" s="15"/>
-      <c r="E72" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F72" s="15"/>
+      <c r="E72" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
@@ -4053,14 +4461,14 @@
         <v>48</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>289</v>
+        <v>164</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="E73" s="35" t="s">
-        <v>292</v>
+      <c r="E73" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -4085,13 +4493,19 @@
       <c r="Z73" s="15"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>288</v>
+      </c>
       <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="E74" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4115,11 +4529,19 @@
       <c r="Z74" s="15"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="A75" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>289</v>
+      </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="E75" s="33" t="s">
+        <v>124</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -4143,11 +4565,19 @@
       <c r="Z75" s="15"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="A76" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>289</v>
+      </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="E76" s="35" t="s">
+        <v>290</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -4170,268 +4600,410 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+    </row>
+    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
-      <c r="I78" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+    </row>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="15"/>
+      <c r="E79" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
-      <c r="I79" s="33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+    </row>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
+      <c r="B80" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="G81" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5" t="s">
-        <v>280</v>
-      </c>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+    </row>
+    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+    </row>
+    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+    </row>
+    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
+    </row>
+    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+    </row>
+    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+    </row>
+    <row r="86" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31" t="s">
+      <c r="B86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="32" t="s">
+    </row>
+    <row r="87" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="F86" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="E90" s="6"/>
+      <c r="G90" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4443,18 +5015,20 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D94"/>
-      <c r="E94"/>
+      <c r="E94" s="37" t="s">
+        <v>311</v>
+      </c>
       <c r="F94" s="31" t="s">
         <v>21</v>
       </c>
@@ -4463,34 +5037,44 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95"/>
+        <v>173</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="E95" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="F95"/>
+        <v>291</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>278</v>
+      </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+    <row r="96" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="D96"/>
-      <c r="E96"/>
+      <c r="E96" s="33" t="s">
+        <v>174</v>
+      </c>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
@@ -4498,9 +5082,11 @@
       <c r="J96"/>
     </row>
     <row r="97" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
+      <c r="A97" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
@@ -4509,443 +5095,266 @@
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="14" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
-      <c r="U98" s="12"/>
-      <c r="V98" s="12"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="12"/>
-      <c r="Y98" s="12"/>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-    </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
-      <c r="Y100" s="18"/>
-    </row>
-    <row r="101" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="21"/>
-      <c r="X105" s="21"/>
-      <c r="Y105" s="21"/>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F106" t="s">
-        <v>73</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
-      <c r="U106" s="12"/>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-      <c r="U107" s="12"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-    </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-    </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
-      <c r="U110" s="12"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="12"/>
-    </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
-      <c r="U111" s="12"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="12"/>
-    </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
       <c r="N112" s="12"/>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
@@ -4960,22 +5369,17 @@
       <c r="Y112" s="12"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>151</v>
+      <c r="B113" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -4997,242 +5401,144 @@
       <c r="Y113" s="12"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
-      <c r="U114" s="12"/>
-      <c r="V114" s="12"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="12"/>
-    </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
+      <c r="B114" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="18"/>
+      <c r="U114" s="18"/>
+      <c r="V114" s="18"/>
+      <c r="W114" s="18"/>
+      <c r="X114" s="18"/>
+      <c r="Y114" s="18"/>
+    </row>
+    <row r="115" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>48</v>
       </c>
-      <c r="B115" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
-      <c r="S115" s="12"/>
-      <c r="T115" s="12"/>
-      <c r="U115" s="12"/>
-      <c r="V115" s="12"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="12"/>
-      <c r="Y115" s="12"/>
-    </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C116" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17" t="s">
+      <c r="B116" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
+      <c r="B117" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
-      <c r="U118" s="12"/>
-      <c r="V118" s="12"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="12"/>
-      <c r="Y118" s="12"/>
+      <c r="B118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
-      <c r="U119" s="12"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="12"/>
+      <c r="B119" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
+      <c r="V119" s="21"/>
+      <c r="W119" s="21"/>
+      <c r="X119" s="21"/>
+      <c r="Y119" s="21"/>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F120" t="s">
         <v>73</v>
       </c>
       <c r="G120" s="12"/>
@@ -5260,14 +5566,14 @@
         <v>48</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="7" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>73</v>
@@ -5296,24 +5602,26 @@
       <c r="A122" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
+      <c r="B122" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
       <c r="N122" s="12"/>
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
@@ -5328,31 +5636,533 @@
       <c r="Y122" s="12"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="12"/>
+      <c r="Y128" s="12"/>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="12"/>
+      <c r="U130" s="12"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="12"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="12"/>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="12"/>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="12"/>
+      <c r="Y134" s="12"/>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="12"/>
+      <c r="Y135" s="12"/>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5865,20 +6675,174 @@
     <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="A119">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>AND(#REF!="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>AND(#REF!="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>AND(#REF!="begin group", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>AND(#REF!="begin repeat", NOT($B94 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND(#REF!="begin group", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>AND(#REF!="begin repeat", NOT($B99 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(#REF!="begin group", NOT($B104 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(#REF!="begin repeat", NOT($B104 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5888,10 +6852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6098,13 +7062,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -6128,81 +7092,138 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" t="s">
-        <v>304</v>
-      </c>
+      <c r="B10" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>141</v>
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6210,10 +7231,10 @@
         <v>142</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6221,10 +7242,10 @@
         <v>142</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6232,10 +7253,10 @@
         <v>142</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6243,10 +7264,10 @@
         <v>142</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6254,10 +7275,10 @@
         <v>142</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6265,10 +7286,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6276,76 +7297,109 @@
         <v>142</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>89</v>
+        <v>158</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B30" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C31" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="B32" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6425,7 +7479,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.030570486109</v>
+        <v>44879.081450578706</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB42BB1-F135-4F9D-981C-34507D82F9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1505D2-4AB9-464F-982C-CE1310CE837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
   <si>
     <t>type</t>
   </si>
@@ -1074,6 +1074,9 @@
   </si>
   <si>
     <t>Test for TB</t>
+  </si>
+  <si>
+    <t>sampling_place</t>
   </si>
 </sst>
 </file>
@@ -2088,8 +2091,8 @@
   <dimension ref="A1:Z670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4298,7 +4301,9 @@
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="C68" s="3" t="s">
         <v>310</v>
       </c>
@@ -7479,7 +7484,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.081450578706</v>
+        <v>44879.088527662039</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1505D2-4AB9-464F-982C-CE1310CE837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CDE34A-0916-466C-95F3-D8477CD327F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="322">
   <si>
     <t>type</t>
   </si>
@@ -1077,6 +1077,9 @@
   </si>
   <si>
     <t>sampling_place</t>
+  </si>
+  <si>
+    <t>sampling_lab</t>
   </si>
 </sst>
 </file>
@@ -2091,8 +2094,8 @@
   <dimension ref="A1:Z670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4668,7 +4671,7 @@
         <v>17</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>313</v>
@@ -7484,7 +7487,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.088527662039</v>
+        <v>44879.090168634262</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CDE34A-0916-466C-95F3-D8477CD327F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C20E5E-C5BE-4E89-9D42-0D3CC4B166E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="323">
   <si>
     <t>type</t>
   </si>
@@ -1080,6 +1080,9 @@
   </si>
   <si>
     <t>sampling_lab</t>
+  </si>
+  <si>
+    <t>testing_hf</t>
   </si>
 </sst>
 </file>
@@ -2094,8 +2097,8 @@
   <dimension ref="A1:Z670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5120,7 +5123,7 @@
         <v>17</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>317</v>
@@ -7487,7 +7490,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.090168634262</v>
+        <v>44879.092262615741</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C20E5E-C5BE-4E89-9D42-0D3CC4B166E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B1660-73EF-43B6-AC39-83D5AA559925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="325">
   <si>
     <t>type</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>testing_hf</t>
+  </si>
+  <si>
+    <t>cov_test_hf</t>
+  </si>
+  <si>
+    <t>tb_test_hf</t>
   </si>
 </sst>
 </file>
@@ -2097,8 +2103,8 @@
   <dimension ref="A1:Z670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5145,7 +5151,7 @@
         <v>168</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>173</v>
@@ -5169,7 +5175,7 @@
         <v>48</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="C101" s="32" t="s">
         <v>319</v>
@@ -7490,7 +7496,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.092262615741</v>
+        <v>44879.094013773145</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B1660-73EF-43B6-AC39-83D5AA559925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0AC43-2385-4F96-9BFB-E40593323247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="329">
   <si>
     <t>type</t>
   </si>
@@ -1089,6 +1089,18 @@
   </si>
   <si>
     <t>tb_test_hf</t>
+  </si>
+  <si>
+    <t>rpttest_hf</t>
+  </si>
+  <si>
+    <t>cov_test_hf_rpt</t>
+  </si>
+  <si>
+    <t>selected(${cov_test_hf},'Invalid')</t>
+  </si>
+  <si>
+    <t>REPEAT TESTING AT HF</t>
   </si>
 </sst>
 </file>
@@ -2100,11 +2112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z670"/>
+  <dimension ref="A1:Z674"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4355,7 +4367,9 @@
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="F69" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -5098,7 +5112,7 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
         <v>29</v>
       </c>
@@ -5112,7 +5126,7 @@
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="32"/>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -5124,7 +5138,7 @@
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
         <v>17</v>
       </c>
@@ -5146,7 +5160,7 @@
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
         <v>168</v>
       </c>
@@ -5170,7 +5184,7 @@
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
         <v>48</v>
       </c>
@@ -5190,7 +5204,7 @@
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
         <v>29</v>
       </c>
@@ -5204,7 +5218,7 @@
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="32"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
@@ -5216,7 +5230,7 @@
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
         <v>17</v>
       </c>
@@ -5238,7 +5252,7 @@
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>48</v>
       </c>
@@ -5258,7 +5272,7 @@
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>29</v>
       </c>
@@ -5272,7 +5286,7 @@
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5284,7 +5298,7 @@
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>17</v>
       </c>
@@ -5304,7 +5318,7 @@
       <c r="I108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>48</v>
       </c>
@@ -5324,7 +5338,7 @@
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="31" t="s">
         <v>29</v>
       </c>
@@ -5338,7 +5352,7 @@
       <c r="I110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -5350,360 +5364,278 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="14" t="s">
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-      <c r="U112" s="12"/>
-      <c r="V112" s="12"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="12"/>
-    </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B117" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C117" t="s">
         <v>63</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12"/>
-      <c r="U113" s="12"/>
-      <c r="V113" s="12"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="12"/>
-      <c r="Y113" s="12"/>
-    </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
+      <c r="D117" s="5"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B118" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C118" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18" t="s">
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
-      <c r="T114" s="18"/>
-      <c r="U114" s="18"/>
-      <c r="V114" s="18"/>
-      <c r="W114" s="18"/>
-      <c r="X114" s="18"/>
-      <c r="Y114" s="18"/>
-    </row>
-    <row r="115" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="18"/>
+      <c r="X118" s="18"/>
+      <c r="Y118" s="18"/>
+    </row>
+    <row r="119" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>48</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B119" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C119" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="I115" s="12"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C120" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E120" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C121" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E121" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C122" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E122" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21" t="s">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B123" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C123" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21" t="s">
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
-      <c r="V119" s="21"/>
-      <c r="W119" s="21"/>
-      <c r="X119" s="21"/>
-      <c r="Y119" s="21"/>
-    </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F120" t="s">
-        <v>73</v>
-      </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
-      <c r="S120" s="12"/>
-      <c r="T120" s="12"/>
-      <c r="U120" s="12"/>
-      <c r="V120" s="12"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="12"/>
-    </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-      <c r="U121" s="12"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="12"/>
-      <c r="S122" s="12"/>
-      <c r="T122" s="12"/>
-      <c r="U122" s="12"/>
-      <c r="V122" s="12"/>
-      <c r="W122" s="12"/>
-      <c r="X122" s="12"/>
-      <c r="Y122" s="12"/>
-    </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="12"/>
-      <c r="S123" s="12"/>
-      <c r="T123" s="12"/>
-      <c r="U123" s="12"/>
-      <c r="V123" s="12"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="12"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F124" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" t="s">
         <v>73</v>
       </c>
       <c r="G124" s="12"/>
@@ -5731,14 +5663,14 @@
         <v>48</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>73</v>
@@ -5768,14 +5700,14 @@
         <v>48</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>73</v>
@@ -5805,14 +5737,14 @@
         <v>48</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>73</v>
@@ -5842,14 +5774,14 @@
         <v>48</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>73</v>
@@ -5879,14 +5811,14 @@
         <v>48</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>73</v>
@@ -5916,14 +5848,14 @@
         <v>48</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>73</v>
@@ -5953,14 +5885,14 @@
         <v>48</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>73</v>
@@ -5990,14 +5922,14 @@
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>73</v>
@@ -6027,14 +5959,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -6064,14 +5996,14 @@
         <v>48</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6101,14 +6033,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6137,24 +6069,26 @@
       <c r="A136" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
+      <c r="B136" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
@@ -6169,14 +6103,156 @@
       <c r="Y136" s="12"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="U137" s="12"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="12"/>
+      <c r="X137" s="12"/>
+      <c r="Y137" s="12"/>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="12"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12"/>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12"/>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="12"/>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="12"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="12"/>
+      <c r="W140" s="12"/>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12"/>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6706,18 +6782,22 @@
     <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A114">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="A119">
     <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
+  <conditionalFormatting sqref="A123">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7496,7 +7576,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.094013773145</v>
+        <v>44879.100252777775</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0AC43-2385-4F96-9BFB-E40593323247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D10334-3BC6-4AF9-8B9A-01B0EBA4E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="333">
   <si>
     <t>type</t>
   </si>
@@ -1101,6 +1101,18 @@
   </si>
   <si>
     <t>REPEAT TESTING AT HF</t>
+  </si>
+  <si>
+    <t>rpt_testing</t>
+  </si>
+  <si>
+    <t>rpt_cov_test</t>
+  </si>
+  <si>
+    <t>(selected(${cov_test_hf},'Invalid') or selected(${cov_test},'Invalid'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ag-RDT REPEAT TESTING </t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1367,67 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF76A5AF"/>
@@ -2112,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z674"/>
+  <dimension ref="A1:Z678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5430,360 +5502,279 @@
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>331</v>
+      </c>
+      <c r="F117" t="s">
+        <v>278</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="14" t="s">
+      <c r="D120" s="4"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B121" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C121" t="s">
         <v>63</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18" t="s">
+      <c r="D121" s="5"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B122" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C122" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18" t="s">
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
-    </row>
-    <row r="119" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+      <c r="T122" s="18"/>
+      <c r="U122" s="18"/>
+      <c r="V122" s="18"/>
+      <c r="W122" s="18"/>
+      <c r="X122" s="18"/>
+      <c r="Y122" s="18"/>
+    </row>
+    <row r="123" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>48</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B123" t="s">
         <v>66</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C123" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="I119" s="12"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B124" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C124" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E124" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C125" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E125" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B126" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C126" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E126" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21" t="s">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B127" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21" t="s">
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="21"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F124" t="s">
-        <v>73</v>
-      </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
-      <c r="P124" s="12"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="12"/>
-      <c r="S124" s="12"/>
-      <c r="T124" s="12"/>
-      <c r="U124" s="12"/>
-      <c r="V124" s="12"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="12"/>
-    </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
-      <c r="P125" s="12"/>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
-      <c r="S125" s="12"/>
-      <c r="T125" s="12"/>
-      <c r="U125" s="12"/>
-      <c r="V125" s="12"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="12"/>
-      <c r="Y125" s="12"/>
-    </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
-      <c r="P126" s="12"/>
-      <c r="Q126" s="12"/>
-      <c r="R126" s="12"/>
-      <c r="S126" s="12"/>
-      <c r="T126" s="12"/>
-      <c r="U126" s="12"/>
-      <c r="V126" s="12"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="12"/>
-      <c r="Y126" s="12"/>
-    </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="12"/>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="12"/>
-      <c r="U127" s="12"/>
-      <c r="V127" s="12"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="12"/>
-      <c r="Y127" s="12"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
+      <c r="W127" s="21"/>
+      <c r="X127" s="21"/>
+      <c r="Y127" s="21"/>
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F128" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F128" t="s">
         <v>73</v>
       </c>
       <c r="G128" s="12"/>
@@ -5811,14 +5802,14 @@
         <v>48</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>73</v>
@@ -5848,14 +5839,14 @@
         <v>48</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="7" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>73</v>
@@ -5885,14 +5876,14 @@
         <v>48</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>73</v>
@@ -5922,14 +5913,14 @@
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>73</v>
@@ -5959,14 +5950,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -5996,14 +5987,14 @@
         <v>48</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6033,14 +6024,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6070,14 +6061,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6107,14 +6098,14 @@
         <v>48</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6144,14 +6135,14 @@
         <v>48</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>73</v>
@@ -6181,14 +6172,14 @@
         <v>48</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>73</v>
@@ -6217,24 +6208,26 @@
       <c r="A140" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
+      <c r="B140" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
       <c r="N140" s="12"/>
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
@@ -6249,29 +6242,171 @@
       <c r="Y140" s="12"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6786,159 +6921,163 @@
     <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+  <conditionalFormatting sqref="A122">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+      <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>AND(#REF!="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>AND(#REF!="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>AND(#REF!="begin group", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>AND(#REF!="begin repeat", NOT($B94 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>AND(#REF!="begin group", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND(#REF!="begin repeat", NOT($B99 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>AND(#REF!="begin group", NOT($B104 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(#REF!="begin repeat", NOT($B104 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7576,7 +7715,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.100252777775</v>
+        <v>44879.106026967595</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D10334-3BC6-4AF9-8B9A-01B0EBA4E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01409F4E-5FFA-4E70-9B7E-748A177C364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="333">
   <si>
     <t>type</t>
   </si>
@@ -2187,8 +2187,8 @@
   <dimension ref="A1:Z678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5511,9 +5511,6 @@
       </c>
       <c r="C116" s="31" t="s">
         <v>332</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>311</v>
       </c>
       <c r="F116" s="31" t="s">
         <v>21</v>
@@ -7715,7 +7712,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.106026967595</v>
+        <v>44879.111620023148</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01409F4E-5FFA-4E70-9B7E-748A177C364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4B15A-E40A-4757-AEEC-9F9BB43708A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="331">
   <si>
     <t>type</t>
   </si>
@@ -1001,9 +1001,6 @@
     <t>cov_test_rpt</t>
   </si>
   <si>
-    <t>REPEAT TESTING</t>
-  </si>
-  <si>
     <t>Repeat the COVID-19 and update the result</t>
   </si>
   <si>
@@ -1103,16 +1100,13 @@
     <t>REPEAT TESTING AT HF</t>
   </si>
   <si>
-    <t>rpt_testing</t>
-  </si>
-  <si>
-    <t>rpt_cov_test</t>
-  </si>
-  <si>
-    <t>(selected(${cov_test_hf},'Invalid') or selected(${cov_test},'Invalid'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ag-RDT REPEAT TESTING </t>
+    <t>REPEAT TESTING AT HH</t>
+  </si>
+  <si>
+    <t>rpt_cov_hh</t>
+  </si>
+  <si>
+    <t>rpt_cov_hf</t>
   </si>
 </sst>
 </file>
@@ -2184,11 +2178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z678"/>
+  <dimension ref="A1:Z676"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4398,10 +4392,10 @@
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4429,13 +4423,13 @@
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -4529,11 +4523,11 @@
         <v>167</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>21</v>
@@ -4766,14 +4760,14 @@
         <v>17</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>21</v>
@@ -4807,7 +4801,7 @@
         <v>164</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
@@ -4843,7 +4837,7 @@
         <v>165</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="s">
@@ -5126,11 +5120,11 @@
         <v>172</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F94" s="31" t="s">
         <v>21</v>
@@ -5172,7 +5166,7 @@
         <v>170</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="33" t="s">
@@ -5215,14 +5209,14 @@
         <v>17</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F99" s="31" t="s">
         <v>21</v>
@@ -5237,7 +5231,7 @@
         <v>168</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>173</v>
@@ -5261,10 +5255,10 @@
         <v>48</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="33" t="s">
@@ -5314,7 +5308,7 @@
       </c>
       <c r="D104"/>
       <c r="E104" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F104" s="31" t="s">
         <v>21</v>
@@ -5332,7 +5326,7 @@
         <v>171</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="33" t="s">
@@ -5378,7 +5372,7 @@
         <v>293</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
@@ -5398,11 +5392,11 @@
         <v>294</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
@@ -5411,23 +5405,35 @@
       <c r="J109"/>
     </row>
     <row r="110" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="F110" t="s">
+        <v>278</v>
+      </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110"/>
     </row>
     <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
+      <c r="A111" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -5437,53 +5443,51 @@
       <c r="J111"/>
     </row>
     <row r="112" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>328</v>
-      </c>
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="F112" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="F112"/>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
     <row r="113" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>296</v>
+      <c r="A113" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>327</v>
       </c>
       <c r="D113"/>
-      <c r="E113" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113"/>
+      <c r="E113"/>
+      <c r="F113" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113"/>
     </row>
     <row r="114" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
+      <c r="A114" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>295</v>
+      </c>
       <c r="D114"/>
-      <c r="E114"/>
+      <c r="E114" s="33" t="s">
+        <v>326</v>
+      </c>
       <c r="F114"/>
       <c r="G114"/>
       <c r="H114"/>
@@ -5491,287 +5495,335 @@
       <c r="J114"/>
     </row>
     <row r="115" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
+      <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F115" t="s">
+        <v>278</v>
+      </c>
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="F116" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
     </row>
     <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>168</v>
-      </c>
-      <c r="B117" t="s">
-        <v>330</v>
-      </c>
-      <c r="C117" t="s">
-        <v>173</v>
-      </c>
-      <c r="D117" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" t="s">
-        <v>331</v>
-      </c>
-      <c r="F117" t="s">
-        <v>278</v>
-      </c>
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="A120" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
-      <c r="S120" s="12"/>
-      <c r="T120" s="12"/>
-      <c r="U120" s="12"/>
-      <c r="V120" s="12"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="12"/>
-    </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+      <c r="C120" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="18"/>
+      <c r="U120" s="18"/>
+      <c r="V120" s="18"/>
+      <c r="W120" s="18"/>
+      <c r="X120" s="18"/>
+      <c r="Y120" s="18"/>
+    </row>
+    <row r="121" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>48</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" t="s">
-        <v>63</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-      <c r="U121" s="12"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-    </row>
-    <row r="123" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B122" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B123" t="s">
-        <v>66</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I123" s="12"/>
+      <c r="B123" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E123" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E125" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+      <c r="B125" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E126" t="s">
-        <v>281</v>
-      </c>
+      <c r="B126" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" t="s">
+        <v>73</v>
+      </c>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
-      <c r="N127" s="21"/>
-      <c r="O127" s="21"/>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21"/>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
-      <c r="W127" s="21"/>
-      <c r="X127" s="21"/>
-      <c r="Y127" s="21"/>
+      <c r="B127" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F128" t="s">
+        <v>180</v>
+      </c>
+      <c r="F128" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G128" s="12"/>
@@ -5799,14 +5851,14 @@
         <v>48</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>73</v>
@@ -5836,14 +5888,14 @@
         <v>48</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="7" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>73</v>
@@ -5873,14 +5925,14 @@
         <v>48</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>73</v>
@@ -5910,14 +5962,14 @@
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>73</v>
@@ -5947,14 +5999,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -5984,14 +6036,14 @@
         <v>48</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6021,14 +6073,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6058,14 +6110,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6095,14 +6147,14 @@
         <v>48</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6132,14 +6184,14 @@
         <v>48</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>73</v>
@@ -6169,14 +6221,14 @@
         <v>48</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>73</v>
@@ -6206,14 +6258,14 @@
         <v>48</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="7" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>73</v>
@@ -6243,14 +6295,14 @@
         <v>48</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>73</v>
@@ -6279,26 +6331,24 @@
       <c r="A142" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
+      <c r="B142" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
       <c r="N142" s="12"/>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
@@ -6313,97 +6363,27 @@
       <c r="Y142" s="12"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
-      <c r="Q143" s="12"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
-      <c r="T143" s="12"/>
-      <c r="U143" s="12"/>
-      <c r="V143" s="12"/>
-      <c r="W143" s="12"/>
-      <c r="X143" s="12"/>
-      <c r="Y143" s="12"/>
-    </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-      <c r="Q144" s="12"/>
-      <c r="R144" s="12"/>
-      <c r="S144" s="12"/>
-      <c r="T144" s="12"/>
-      <c r="U144" s="12"/>
-      <c r="V144" s="12"/>
-      <c r="W144" s="12"/>
-      <c r="X144" s="12"/>
-      <c r="Y144" s="12"/>
-    </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="A143" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6920,20 +6900,18 @@
     <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A122">
+  <conditionalFormatting sqref="A120">
     <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
+  <conditionalFormatting sqref="A121">
     <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+  <conditionalFormatting sqref="A125">
     <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7295,13 +7273,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7327,13 +7305,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7388,10 +7366,10 @@
         <v>92</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7420,10 +7398,10 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
         <v>299</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -7712,7 +7690,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.111620023148</v>
+        <v>44879.119516435188</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4B15A-E40A-4757-AEEC-9F9BB43708A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD65BC8-95C8-43CC-8B79-323AC410DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="329">
   <si>
     <t>type</t>
   </si>
@@ -1101,12 +1101,6 @@
   </si>
   <si>
     <t>REPEAT TESTING AT HH</t>
-  </si>
-  <si>
-    <t>rpt_cov_hh</t>
-  </si>
-  <si>
-    <t>rpt_cov_hf</t>
   </si>
 </sst>
 </file>
@@ -2178,11 +2172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z676"/>
+  <dimension ref="A1:Z674"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5405,35 +5399,23 @@
       <c r="J109"/>
     </row>
     <row r="110" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>168</v>
-      </c>
-      <c r="B110" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" t="s">
-        <v>173</v>
-      </c>
-      <c r="D110" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="F110" t="s">
-        <v>278</v>
-      </c>
+      <c r="A110" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110"/>
     </row>
     <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -5443,51 +5425,53 @@
       <c r="J111"/>
     </row>
     <row r="112" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
+      <c r="A112" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="F112"/>
+      <c r="F112" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
     <row r="113" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>327</v>
+      <c r="A113" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E113" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F113"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113"/>
     </row>
     <row r="114" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>295</v>
-      </c>
+      <c r="A114" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
       <c r="D114"/>
-      <c r="E114" s="33" t="s">
-        <v>326</v>
-      </c>
+      <c r="E114"/>
       <c r="F114"/>
       <c r="G114"/>
       <c r="H114"/>
@@ -5495,261 +5479,297 @@
       <c r="J114"/>
     </row>
     <row r="115" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" t="s">
-        <v>330</v>
-      </c>
-      <c r="C115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D115" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F115" t="s">
-        <v>278</v>
-      </c>
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="A118" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
-      <c r="U118" s="12"/>
-      <c r="V118" s="12"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="12"/>
-      <c r="Y118" s="12"/>
-    </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="C118" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="18"/>
+      <c r="X118" s="18"/>
+      <c r="Y118" s="18"/>
+    </row>
+    <row r="119" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
-      <c r="U119" s="12"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="12"/>
-    </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
-    </row>
-    <row r="121" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B120" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B121" t="s">
-        <v>66</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I121" s="12"/>
+      <c r="B121" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E123" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+      <c r="B123" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E124" t="s">
-        <v>281</v>
-      </c>
+      <c r="B124" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" t="s">
+        <v>73</v>
+      </c>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
-      <c r="N125" s="21"/>
-      <c r="O125" s="21"/>
-      <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
-      <c r="R125" s="21"/>
-      <c r="S125" s="21"/>
-      <c r="T125" s="21"/>
-      <c r="U125" s="21"/>
-      <c r="V125" s="21"/>
-      <c r="W125" s="21"/>
-      <c r="X125" s="21"/>
-      <c r="Y125" s="21"/>
+      <c r="B125" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F126" t="s">
+        <v>180</v>
+      </c>
+      <c r="F126" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G126" s="12"/>
@@ -5777,14 +5797,14 @@
         <v>48</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>73</v>
@@ -5814,14 +5834,14 @@
         <v>48</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>73</v>
@@ -5851,14 +5871,14 @@
         <v>48</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>73</v>
@@ -5888,14 +5908,14 @@
         <v>48</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>73</v>
@@ -5925,14 +5945,14 @@
         <v>48</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>73</v>
@@ -5962,14 +5982,14 @@
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>73</v>
@@ -5999,14 +6019,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -6036,14 +6056,14 @@
         <v>48</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6073,14 +6093,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6110,14 +6130,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6147,14 +6167,14 @@
         <v>48</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6184,14 +6204,14 @@
         <v>48</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>73</v>
@@ -6221,14 +6241,14 @@
         <v>48</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>73</v>
@@ -6257,26 +6277,24 @@
       <c r="A140" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
+      <c r="B140" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
       <c r="N140" s="12"/>
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
@@ -6291,82 +6309,12 @@
       <c r="Y140" s="12"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="12"/>
-      <c r="P141" s="12"/>
-      <c r="Q141" s="12"/>
-      <c r="R141" s="12"/>
-      <c r="S141" s="12"/>
-      <c r="T141" s="12"/>
-      <c r="U141" s="12"/>
-      <c r="V141" s="12"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="12"/>
-      <c r="Y141" s="12"/>
-    </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
-      <c r="Q142" s="12"/>
-      <c r="R142" s="12"/>
-      <c r="S142" s="12"/>
-      <c r="T142" s="12"/>
-      <c r="U142" s="12"/>
-      <c r="V142" s="12"/>
-      <c r="W142" s="12"/>
-      <c r="X142" s="12"/>
-      <c r="Y142" s="12"/>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="A141" s="4" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6898,20 +6846,18 @@
     <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A120">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A119">
     <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
+  <conditionalFormatting sqref="A123">
     <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
@@ -7690,7 +7636,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.119516435188</v>
+        <v>44879.122933333332</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD65BC8-95C8-43CC-8B79-323AC410DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC669C9-BB67-4F88-AFE3-6864BEC39252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="350">
   <si>
     <t>type</t>
   </si>
@@ -1101,6 +1101,69 @@
   </si>
   <si>
     <t>REPEAT TESTING AT HH</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>covax</t>
+  </si>
+  <si>
+    <t>covdose</t>
+  </si>
+  <si>
+    <t>${covax}='yes'</t>
+  </si>
+  <si>
+    <t>vax</t>
+  </si>
+  <si>
+    <t>Would you like to get the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>vaxboost</t>
+  </si>
+  <si>
+    <t>Would you like to get the COVID-19 vaccine booster?</t>
+  </si>
+  <si>
+    <t>select_one vax</t>
+  </si>
+  <si>
+    <t>vaxplace</t>
+  </si>
+  <si>
+    <t>Where would you like to take your vaccine?</t>
+  </si>
+  <si>
+    <t>${vaxboost}='yes'</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the community </t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>At the nearest health facility</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>VACCINATION INFORMATION</t>
+  </si>
+  <si>
+    <t>Did you get the full dose (at least 2 doses if you got a different vaccine from the Johnson and Johnson's vaccine)?</t>
+  </si>
+  <si>
+    <t>Have you ever received COVID-19 vaccination</t>
+  </si>
+  <si>
+    <t>${covax}='no' or ${covdose}='no'</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1418,34 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF76A5AF"/>
@@ -1458,21 +1548,152 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2172,11 +2393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z674"/>
+  <dimension ref="A1:Z682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3948,27 +4169,27 @@
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -3979,16 +4200,14 @@
         <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" t="s">
-        <v>260</v>
+        <v>345</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -4011,227 +4230,182 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="F58" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>115</v>
+        <v>329</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>116</v>
+        <v>333</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="F59" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="F60" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+    </row>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>339</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="E61" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>134</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -4246,485 +4420,494 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="F66" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="F67" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="F68" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+    </row>
+    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C72" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="33" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-    </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-    </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+    </row>
+    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D73" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
+      <c r="A74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>289</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="33" t="s">
-        <v>124</v>
-      </c>
+      <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
-      <c r="X76" s="15"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+      <c r="F77" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="A78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
@@ -4750,22 +4933,12 @@
       <c r="Z78" s="15"/>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>312</v>
-      </c>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
@@ -4788,20 +4961,22 @@
       <c r="Z79" s="15"/>
     </row>
     <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>313</v>
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="15"/>
+      <c r="E80" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
@@ -4824,18 +4999,18 @@
       <c r="Z80" s="15"/>
     </row>
     <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>313</v>
+      <c r="B81" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>288</v>
       </c>
       <c r="D81" s="15"/>
-      <c r="E81" s="15" t="s">
-        <v>122</v>
+      <c r="E81" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -4860,18 +5035,18 @@
       <c r="Z81" s="15"/>
     </row>
     <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>289</v>
+      <c r="B82" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>288</v>
       </c>
       <c r="D82" s="15"/>
-      <c r="E82" s="15" t="s">
-        <v>124</v>
+      <c r="E82" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -4896,18 +5071,18 @@
       <c r="Z82" s="15"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>289</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="E83" s="15" t="s">
-        <v>290</v>
+      <c r="E83" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -4932,13 +5107,19 @@
       <c r="Z83" s="15"/>
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>289</v>
+      </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
+      <c r="E84" s="35" t="s">
+        <v>290</v>
+      </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -4962,9 +5143,11 @@
       <c r="Z84" s="15"/>
     </row>
     <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -4989,275 +5172,385 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+    </row>
+    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F86" s="14" t="s">
+      <c r="B87" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
-      <c r="I87" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+    </row>
+    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
-      <c r="I88" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+    </row>
+    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
+      <c r="B89" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
-    </row>
-    <row r="90" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="G90" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5" t="s">
-        <v>278</v>
-      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+    </row>
+    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+    </row>
+    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+    </row>
+    <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+    </row>
+    <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+    </row>
+    <row r="94" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F94" s="31" t="s">
+      <c r="B94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="32" t="s">
+    </row>
+    <row r="95" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E95" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F95" s="32" t="s">
+      <c r="E98" s="6"/>
+      <c r="G98" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="31" t="s">
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99"/>
-      <c r="E99" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F99" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F100" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
     </row>
     <row r="101" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>318</v>
-      </c>
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" s="33" t="s">
-        <v>174</v>
-      </c>
+      <c r="E101"/>
       <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
@@ -5266,66 +5559,78 @@
     </row>
     <row r="102" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>315</v>
+      </c>
       <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
+      <c r="E102" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102"/>
     </row>
     <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
+      <c r="A103" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>278</v>
+      </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103"/>
     </row>
     <row r="104" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>273</v>
+      <c r="A104" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>317</v>
       </c>
       <c r="D104"/>
-      <c r="E104" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F104" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E104" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104"/>
     </row>
     <row r="105" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>301</v>
-      </c>
+      <c r="A105" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="D105"/>
-      <c r="E105" s="33" t="s">
-        <v>175</v>
-      </c>
+      <c r="E105"/>
       <c r="F105"/>
       <c r="G105"/>
       <c r="H105"/>
@@ -5333,11 +5638,9 @@
       <c r="J105"/>
     </row>
     <row r="106" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -5347,31 +5650,45 @@
       <c r="J106"/>
     </row>
     <row r="107" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
+      <c r="A107" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>316</v>
+      </c>
       <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
+      <c r="E107" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107"/>
     </row>
     <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108" s="31" t="s">
-        <v>21</v>
+      <c r="A108" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>278</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -5383,14 +5700,14 @@
         <v>48</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="33" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
@@ -5413,9 +5730,9 @@
       <c r="J110"/>
     </row>
     <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -5429,13 +5746,15 @@
         <v>17</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="D112"/>
-      <c r="E112"/>
+      <c r="E112" s="37" t="s">
+        <v>310</v>
+      </c>
       <c r="F112" s="31" t="s">
         <v>21</v>
       </c>
@@ -5449,14 +5768,14 @@
         <v>48</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>325</v>
+        <v>171</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="33" t="s">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
@@ -5490,221 +5809,160 @@
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="14" t="s">
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" t="s">
-        <v>63</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
-    </row>
-    <row r="119" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>48</v>
-      </c>
-      <c r="B119" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I119" s="12"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E120" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E121" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E122" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="21"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F124" t="s">
-        <v>73</v>
-      </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
       <c r="N124" s="12"/>
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
@@ -5719,22 +5977,17 @@
       <c r="Y124" s="12"/>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>140</v>
+      <c r="B125" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
       </c>
       <c r="D125" s="5"/>
-      <c r="E125" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -5756,242 +6009,144 @@
       <c r="Y125" s="12"/>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
-      <c r="P126" s="12"/>
-      <c r="Q126" s="12"/>
-      <c r="R126" s="12"/>
-      <c r="S126" s="12"/>
-      <c r="T126" s="12"/>
-      <c r="U126" s="12"/>
-      <c r="V126" s="12"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="12"/>
-      <c r="Y126" s="12"/>
-    </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
+      <c r="B126" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
+      <c r="V126" s="18"/>
+      <c r="W126" s="18"/>
+      <c r="X126" s="18"/>
+      <c r="Y126" s="18"/>
+    </row>
+    <row r="127" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="12"/>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="12"/>
-      <c r="U127" s="12"/>
-      <c r="V127" s="12"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="12"/>
-      <c r="Y127" s="12"/>
-    </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B128" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="12"/>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="12"/>
-      <c r="S128" s="12"/>
-      <c r="T128" s="12"/>
-      <c r="U128" s="12"/>
-      <c r="V128" s="12"/>
-      <c r="W128" s="12"/>
-      <c r="X128" s="12"/>
-      <c r="Y128" s="12"/>
-    </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
+      <c r="B128" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
-      <c r="P129" s="12"/>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12"/>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
-      <c r="U129" s="12"/>
-      <c r="V129" s="12"/>
-      <c r="W129" s="12"/>
-      <c r="X129" s="12"/>
-      <c r="Y129" s="12"/>
-    </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
+      <c r="B129" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B130" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="12"/>
-      <c r="P130" s="12"/>
-      <c r="Q130" s="12"/>
-      <c r="R130" s="12"/>
-      <c r="S130" s="12"/>
-      <c r="T130" s="12"/>
-      <c r="U130" s="12"/>
-      <c r="V130" s="12"/>
-      <c r="W130" s="12"/>
-      <c r="X130" s="12"/>
-      <c r="Y130" s="12"/>
+      <c r="B130" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="12"/>
-      <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
-      <c r="O131" s="12"/>
-      <c r="P131" s="12"/>
-      <c r="Q131" s="12"/>
-      <c r="R131" s="12"/>
-      <c r="S131" s="12"/>
-      <c r="T131" s="12"/>
-      <c r="U131" s="12"/>
-      <c r="V131" s="12"/>
-      <c r="W131" s="12"/>
-      <c r="X131" s="12"/>
-      <c r="Y131" s="12"/>
+      <c r="B131" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="21"/>
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21"/>
+      <c r="S131" s="21"/>
+      <c r="T131" s="21"/>
+      <c r="U131" s="21"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+      <c r="Y131" s="21"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F132" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F132" t="s">
         <v>73</v>
       </c>
       <c r="G132" s="12"/>
@@ -6019,14 +6174,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -6056,14 +6211,14 @@
         <v>48</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6093,14 +6248,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6130,14 +6285,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6167,14 +6322,14 @@
         <v>48</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6204,14 +6359,14 @@
         <v>48</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>73</v>
@@ -6241,14 +6396,14 @@
         <v>48</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>73</v>
@@ -6277,24 +6432,26 @@
       <c r="A140" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
+      <c r="B140" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
       <c r="N140" s="12"/>
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
@@ -6309,29 +6466,315 @@
       <c r="Y140" s="12"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6846,162 +7289,319 @@
     <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+  <conditionalFormatting sqref="A126">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+  <conditionalFormatting sqref="A131">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E80 A57:N61">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+  <conditionalFormatting sqref="E80 A57:N61">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>AND(#REF!="begin group", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>AND(#REF!="begin repeat", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="37" priority="35">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="36" priority="36">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="53" priority="67">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="33" priority="27">
-      <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>AND(#REF!="begin group", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="49" priority="59">
+      <formula>AND(#REF!="begin repeat", NOT($B87 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="31" priority="29">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="30" priority="30">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="47" priority="61">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>AND(#REF!="begin group", NOT($B94 = ""))</formula>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>AND(#REF!="begin group", NOT($B102 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>AND(#REF!="begin repeat", NOT($B94 = ""))</formula>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>AND(#REF!="begin repeat", NOT($B102 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="25" priority="23">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="42" priority="54">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="24" priority="24">
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>AND(#REF!="begin group", NOT($B99 = ""))</formula>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>AND(#REF!="begin group", NOT($B107 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND(#REF!="begin repeat", NOT($B99 = ""))</formula>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>AND(#REF!="begin repeat", NOT($B107 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="13" priority="11">
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="12" priority="12">
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>AND(#REF!="begin group", NOT($B104 = ""))</formula>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>AND(#REF!="begin group", NOT($B112 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>AND(#REF!="begin repeat", NOT($B104 = ""))</formula>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>AND(#REF!="begin repeat", NOT($B112 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="7" priority="5">
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="6" priority="6">
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A57:F61">
+    <cfRule type="expression" dxfId="28" priority="14">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C61">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B61">
+    <cfRule type="expression" dxfId="26" priority="17">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A61">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:H61">
+    <cfRule type="expression" dxfId="24" priority="19">
+      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:F61">
+    <cfRule type="expression" dxfId="23" priority="20">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F61 A57:D61">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F61 A57:D61">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>AND($E57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="expression" dxfId="18" priority="25">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:I61">
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>AND($I57 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="15" priority="29">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="13" priority="31">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>AND(#REF!="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>AND(#REF!="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND(#REF!="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(#REF!="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="2" priority="73">
+      <formula>AND(#REF!="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>AND(#REF!="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B61">
+    <cfRule type="expression" dxfId="0" priority="106">
+      <formula>COUNTIF($B$2:$B$1003,B57)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D57:D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7009,10 +7609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7219,13 +7819,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7251,13 +7851,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7309,13 +7909,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7339,81 +7939,138 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7421,10 +8078,10 @@
         <v>142</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7432,10 +8089,10 @@
         <v>142</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7443,10 +8100,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7454,10 +8111,10 @@
         <v>142</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7465,10 +8122,10 @@
         <v>142</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7476,10 +8133,10 @@
         <v>142</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7487,76 +8144,109 @@
         <v>142</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>89</v>
+        <v>158</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B33" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C34" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B35" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C35" s="34" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7636,7 +8326,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.122933333332</v>
+        <v>44879.701467708335</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms for Review Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC669C9-BB67-4F88-AFE3-6864BEC39252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C35444-DE0E-44FF-8C6D-D508167BAFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>select_yes_no</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1164,6 +1161,9 @@
   </si>
   <si>
     <t>${covax}='no' or ${covdose}='no'</t>
+  </si>
+  <si>
+    <t>yes_no</t>
   </si>
 </sst>
 </file>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z682"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -2719,18 +2719,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2792,10 +2792,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2827,10 +2827,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2862,10 +2862,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2897,10 +2897,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2932,10 +2932,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2967,10 +2967,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3002,10 +3002,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3037,10 +3037,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3072,10 +3072,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3107,10 +3107,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3142,10 +3142,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3212,10 +3212,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3247,10 +3247,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3282,10 +3282,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3317,10 +3317,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3352,10 +3352,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3387,10 +3387,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3422,10 +3422,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3457,10 +3457,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3495,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3527,10 +3527,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -3562,10 +3562,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -3597,10 +3597,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -3632,10 +3632,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3667,10 +3667,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -3702,10 +3702,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3737,10 +3737,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3772,10 +3772,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3807,10 +3807,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3842,10 +3842,10 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3938,7 +3938,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -4033,7 +4033,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4066,10 +4066,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4103,10 +4103,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -4117,10 +4117,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -4131,10 +4131,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,10 +4200,10 @@
         <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4231,20 +4231,20 @@
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>330</v>
-      </c>
       <c r="C57" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
@@ -4257,22 +4257,22 @@
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
@@ -4285,22 +4285,22 @@
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>334</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
@@ -4313,22 +4313,22 @@
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B60" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="32" t="s">
         <v>335</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>336</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>338</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>339</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
@@ -4430,10 +4430,10 @@
         <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4466,10 +4466,10 @@
         <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4497,17 +4497,17 @@
     </row>
     <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="32" t="s">
-        <v>114</v>
-      </c>
       <c r="C66" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="5"/>
       <c r="F66" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -4530,17 +4530,17 @@
     </row>
     <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="C67" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="5"/>
       <c r="F67" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -4563,17 +4563,17 @@
     </row>
     <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="32" t="s">
-        <v>118</v>
-      </c>
       <c r="C68" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="5"/>
       <c r="F68" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -4599,14 +4599,14 @@
         <v>48</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
@@ -4635,14 +4635,14 @@
         <v>48</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -4671,14 +4671,14 @@
         <v>48</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -4707,14 +4707,14 @@
         <v>48</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -4743,14 +4743,14 @@
         <v>48</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -4837,10 +4837,10 @@
         <v>17</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4868,18 +4868,18 @@
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4965,14 +4965,14 @@
         <v>17</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>21</v>
@@ -5003,14 +5003,14 @@
         <v>48</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -5039,14 +5039,14 @@
         <v>48</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -5075,14 +5075,14 @@
         <v>48</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -5111,14 +5111,14 @@
         <v>48</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -5205,14 +5205,14 @@
         <v>17</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>21</v>
@@ -5243,14 +5243,14 @@
         <v>48</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -5279,14 +5279,14 @@
         <v>48</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -5315,14 +5315,14 @@
         <v>48</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -5351,14 +5351,14 @@
         <v>48</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>53</v>
@@ -5459,7 +5459,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="6"/>
@@ -5467,7 +5467,7 @@
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5483,7 +5483,7 @@
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5491,10 +5491,10 @@
         <v>48</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
@@ -5506,7 +5506,7 @@
         <v>43</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>55</v>
@@ -5535,7 +5535,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -5562,14 +5562,14 @@
         <v>17</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F102" s="31" t="s">
         <v>21</v>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="32" t="s">
-        <v>169</v>
-      </c>
       <c r="C103" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D103" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
@@ -5608,14 +5608,14 @@
         <v>48</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
@@ -5654,14 +5654,14 @@
         <v>17</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F107" s="31" t="s">
         <v>21</v>
@@ -5673,22 +5673,22 @@
     </row>
     <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D108" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -5700,14 +5700,14 @@
         <v>48</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
@@ -5746,14 +5746,14 @@
         <v>17</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F112" s="31" t="s">
         <v>21</v>
@@ -5768,14 +5768,14 @@
         <v>48</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
@@ -5814,10 +5814,10 @@
         <v>17</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
@@ -5834,14 +5834,14 @@
         <v>48</v>
       </c>
       <c r="B117" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>294</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>295</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -5880,10 +5880,10 @@
         <v>17</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120"/>
       <c r="E120"/>
@@ -5900,14 +5900,14 @@
         <v>48</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F121"/>
       <c r="G121"/>
@@ -6051,7 +6051,7 @@
         <v>66</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I127" s="12"/>
     </row>
@@ -6066,7 +6066,7 @@
         <v>67</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>68</v>
       </c>
       <c r="E129" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>69</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6137,14 +6137,14 @@
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F132" t="s">
         <v>73</v>
@@ -6174,14 +6174,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -6211,14 +6211,14 @@
         <v>48</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6248,14 +6248,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6285,14 +6285,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6322,14 +6322,14 @@
         <v>48</v>
       </c>
       <c r="B137" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6359,14 +6359,14 @@
         <v>48</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>73</v>
@@ -6396,14 +6396,14 @@
         <v>48</v>
       </c>
       <c r="B139" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>73</v>
@@ -6433,14 +6433,14 @@
         <v>48</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>73</v>
@@ -6470,14 +6470,14 @@
         <v>48</v>
       </c>
       <c r="B141" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>73</v>
@@ -6507,14 +6507,14 @@
         <v>48</v>
       </c>
       <c r="B142" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>156</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>73</v>
@@ -6544,14 +6544,14 @@
         <v>48</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C143" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>73</v>
@@ -6584,11 +6584,11 @@
         <v>30</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>73</v>
@@ -6618,14 +6618,14 @@
         <v>48</v>
       </c>
       <c r="B145" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>73</v>
@@ -6655,14 +6655,14 @@
         <v>48</v>
       </c>
       <c r="B146" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>162</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>73</v>
@@ -6692,14 +6692,14 @@
         <v>48</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>73</v>
@@ -6729,10 +6729,10 @@
         <v>48</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -7611,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,13 +7665,13 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -7697,13 +7697,13 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -7729,13 +7729,13 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -7761,13 +7761,13 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -7819,13 +7819,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>342</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7851,13 +7851,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7909,13 +7909,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7941,13 +7941,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -7999,13 +7999,13 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8031,109 +8031,109 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" t="s">
         <v>298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>74</v>
@@ -8141,32 +8141,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>75</v>
@@ -8174,35 +8174,35 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8212,35 +8212,35 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8277,25 +8277,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -8319,23 +8319,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.701467708335</v>
+        <v>44879.797272337964</v>
       </c>
       <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9344,15 +9344,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="11"/>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="28"/>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="29"/>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="30"/>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms for Review Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C35444-DE0E-44FF-8C6D-D508167BAFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD239138-9E84-4EEB-83D5-EAF94E2DC2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7612,7 +7612,7 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8266,7 +8266,7 @@
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="30.109375" customWidth="1"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.797272337964</v>
+        <v>44879.805916435187</v>
       </c>
       <c r="D2" t="s">
         <v>101</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms for Review Jane Nov 14 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD239138-9E84-4EEB-83D5-EAF94E2DC2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5479FF8C-EC37-41B4-84CE-AA2E8075B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>National ID Number: ${national_id}</t>
     </r>
@@ -282,7 +282,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>Passport Number: ${passport_number}</t>
     </r>
@@ -311,7 +311,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>Alien Number: ${alien_number}</t>
     </r>
@@ -416,9 +416,6 @@
     <t>Case Investigation Form</t>
   </si>
   <si>
-    <t>case_investigation</t>
-  </si>
-  <si>
     <t>pages</t>
   </si>
   <si>
@@ -1164,6 +1161,9 @@
   </si>
   <si>
     <t>yes_no</t>
+  </si>
+  <si>
+    <t>contact: case_investigation</t>
   </si>
 </sst>
 </file>
@@ -2719,18 +2719,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2792,10 +2792,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2827,10 +2827,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2862,10 +2862,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2897,10 +2897,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2932,10 +2932,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2967,10 +2967,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3002,10 +3002,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3037,10 +3037,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3072,10 +3072,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3107,10 +3107,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3142,10 +3142,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3212,10 +3212,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3247,10 +3247,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3282,10 +3282,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3317,10 +3317,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3352,10 +3352,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3387,10 +3387,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3422,10 +3422,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3457,10 +3457,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -3495,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -3527,10 +3527,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -3562,10 +3562,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -3597,10 +3597,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -3632,10 +3632,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3667,10 +3667,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -3702,10 +3702,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3737,10 +3737,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3772,10 +3772,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3807,10 +3807,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3842,10 +3842,10 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3938,7 +3938,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -4033,7 +4033,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4066,10 +4066,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4103,10 +4103,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -4117,10 +4117,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -4131,10 +4131,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,10 +4200,10 @@
         <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4231,20 +4231,20 @@
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>329</v>
-      </c>
       <c r="C57" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
@@ -4257,22 +4257,22 @@
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
@@ -4285,22 +4285,22 @@
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>332</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>333</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
@@ -4313,22 +4313,22 @@
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B60" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="32" t="s">
         <v>334</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>335</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>337</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>338</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
@@ -4430,10 +4430,10 @@
         <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4466,10 +4466,10 @@
         <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4497,17 +4497,17 @@
     </row>
     <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="32" t="s">
-        <v>113</v>
-      </c>
       <c r="C66" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="5"/>
       <c r="F66" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -4530,17 +4530,17 @@
     </row>
     <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>115</v>
-      </c>
       <c r="C67" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" s="5"/>
       <c r="F67" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -4563,17 +4563,17 @@
     </row>
     <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="32" t="s">
-        <v>117</v>
-      </c>
       <c r="C68" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="5"/>
       <c r="F68" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -4599,14 +4599,14 @@
         <v>48</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
@@ -4635,14 +4635,14 @@
         <v>48</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -4671,14 +4671,14 @@
         <v>48</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -4710,11 +4710,11 @@
         <v>87</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -4743,14 +4743,14 @@
         <v>48</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -4837,10 +4837,10 @@
         <v>17</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4868,18 +4868,18 @@
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4965,14 +4965,14 @@
         <v>17</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>21</v>
@@ -5003,14 +5003,14 @@
         <v>48</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -5039,14 +5039,14 @@
         <v>48</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -5075,14 +5075,14 @@
         <v>48</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -5111,14 +5111,14 @@
         <v>48</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -5205,14 +5205,14 @@
         <v>17</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>21</v>
@@ -5243,14 +5243,14 @@
         <v>48</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -5279,14 +5279,14 @@
         <v>48</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -5315,14 +5315,14 @@
         <v>48</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -5351,14 +5351,14 @@
         <v>48</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>53</v>
@@ -5459,7 +5459,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="6"/>
@@ -5467,7 +5467,7 @@
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5483,7 +5483,7 @@
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5491,10 +5491,10 @@
         <v>48</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
@@ -5506,7 +5506,7 @@
         <v>43</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>55</v>
@@ -5535,7 +5535,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -5562,14 +5562,14 @@
         <v>17</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F102" s="31" t="s">
         <v>21</v>
@@ -5581,22 +5581,22 @@
     </row>
     <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="32" t="s">
-        <v>168</v>
-      </c>
       <c r="C103" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
@@ -5608,14 +5608,14 @@
         <v>48</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
@@ -5654,14 +5654,14 @@
         <v>17</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F107" s="31" t="s">
         <v>21</v>
@@ -5673,22 +5673,22 @@
     </row>
     <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -5700,14 +5700,14 @@
         <v>48</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
@@ -5746,14 +5746,14 @@
         <v>17</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F112" s="31" t="s">
         <v>21</v>
@@ -5768,14 +5768,14 @@
         <v>48</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
@@ -5814,10 +5814,10 @@
         <v>17</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
@@ -5834,14 +5834,14 @@
         <v>48</v>
       </c>
       <c r="B117" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>294</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -5880,10 +5880,10 @@
         <v>17</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120"/>
       <c r="E120"/>
@@ -5900,14 +5900,14 @@
         <v>48</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F121"/>
       <c r="G121"/>
@@ -6051,7 +6051,7 @@
         <v>66</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I127" s="12"/>
     </row>
@@ -6066,7 +6066,7 @@
         <v>67</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>68</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>69</v>
       </c>
       <c r="E130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6140,11 +6140,11 @@
         <v>84</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F132" t="s">
         <v>73</v>
@@ -6174,14 +6174,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" s="32" t="s">
         <v>138</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>139</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -6214,11 +6214,11 @@
         <v>90</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6248,14 +6248,14 @@
         <v>48</v>
       </c>
       <c r="B135" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6285,14 +6285,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>145</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6322,14 +6322,14 @@
         <v>48</v>
       </c>
       <c r="B137" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6362,11 +6362,11 @@
         <v>86</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>73</v>
@@ -6396,14 +6396,14 @@
         <v>48</v>
       </c>
       <c r="B139" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>73</v>
@@ -6433,14 +6433,14 @@
         <v>48</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>73</v>
@@ -6470,14 +6470,14 @@
         <v>48</v>
       </c>
       <c r="B141" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="32" t="s">
         <v>152</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>153</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>73</v>
@@ -6507,14 +6507,14 @@
         <v>48</v>
       </c>
       <c r="B142" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>155</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>73</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>73</v>
@@ -6584,11 +6584,11 @@
         <v>30</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>73</v>
@@ -6618,14 +6618,14 @@
         <v>48</v>
       </c>
       <c r="B145" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>159</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>73</v>
@@ -6655,14 +6655,14 @@
         <v>48</v>
       </c>
       <c r="B146" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>161</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F146" s="12" t="s">
         <v>73</v>
@@ -6692,14 +6692,14 @@
         <v>48</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>73</v>
@@ -6729,10 +6729,10 @@
         <v>48</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -7611,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>44</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
@@ -7819,13 +7819,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7851,13 +7851,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7909,13 +7909,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7941,13 +7941,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8002,10 +8002,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8034,106 +8034,106 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
         <v>297</v>
-      </c>
-      <c r="C14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>138</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>74</v>
@@ -8141,29 +8141,29 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>152</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>85</v>
@@ -8174,35 +8174,35 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8212,7 +8212,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>88</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>89</v>
@@ -8234,13 +8234,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8258,14 +8258,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -8321,21 +8321,21 @@
       <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
+      <c r="B2" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44879.805916435187</v>
+        <v>44880.020628587961</v>
       </c>
       <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9344,15 +9344,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="11"/>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="28"/>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="29"/>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="30"/>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5479FF8C-EC37-41B4-84CE-AA2E8075B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCD4D6-A621-4BAF-A7BA-F5BA51CDC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
     <t>yes_no</t>
   </si>
   <si>
-    <t>contact: case_investigation</t>
+    <t>case_investigation</t>
   </si>
 </sst>
 </file>
@@ -8259,13 +8259,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44880.020628587961</v>
+        <v>44880.024412962965</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Case Investigation and Suspect Create Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCD4D6-A621-4BAF-A7BA-F5BA51CDC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3607EEB-56EB-4680-9132-C60D8B6C5373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="291">
   <si>
     <t>type</t>
   </si>
@@ -659,198 +659,9 @@
     <t>selected(${tb},'weight_sy')</t>
   </si>
   <si>
-    <t>db:trace_contact</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t>What is the traveller's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>contact_type</t>
-  </si>
-  <si>
-    <t>Contact Type</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Type of Contact</t>
-  </si>
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>Case ID</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
-    <t>Case Name</t>
-  </si>
-  <si>
-    <t>National ID Number</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>Passport Number</t>
-  </si>
-  <si>
-    <t>alien_number</t>
-  </si>
-  <si>
-    <t>Alien Number</t>
-  </si>
-  <si>
-    <t>s_name</t>
-  </si>
-  <si>
-    <t>f_name</t>
-  </si>
-  <si>
-    <t>o_name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Other name(s)</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>dob_known</t>
-  </si>
-  <si>
-    <t>Does the contact know their date of birth?</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>alternate_phone</t>
-  </si>
-  <si>
-    <t>Alternate Phone</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>subcounty</t>
-  </si>
-  <si>
-    <t>Sub County</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>Village/ township of residence</t>
-  </si>
-  <si>
-    <t>pick_up</t>
-  </si>
-  <si>
-    <t>Pick up point</t>
-  </si>
-  <si>
-    <t>residence</t>
-  </si>
-  <si>
-    <t>Residence</t>
-  </si>
-  <si>
-    <t>nearest_health_center</t>
-  </si>
-  <si>
-    <t>Nearest Health Centre</t>
-  </si>
-  <si>
-    <t>kin_name</t>
-  </si>
-  <si>
-    <t>Next of Kin Name</t>
-  </si>
-  <si>
-    <t>kin_phone_number</t>
-  </si>
-  <si>
-    <t>kin_relationship</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Phone Nember</t>
-  </si>
-  <si>
-    <t>nhif_cover</t>
-  </si>
-  <si>
-    <t>NHIF cover</t>
-  </si>
-  <si>
     <t>rtpcr</t>
   </si>
   <si>
@@ -905,9 +716,6 @@
     <t>&lt;b&gt;Patient information&lt;/b&gt;</t>
   </si>
   <si>
-    <t>../inputs/contact/_id</t>
-  </si>
-  <si>
     <t>instance('contact-summary')/context/monotonic_counter</t>
   </si>
   <si>
@@ -926,9 +734,6 @@
     <t>concat(${username},'-',${monotonic_counter})</t>
   </si>
   <si>
-    <t>national_id</t>
-  </si>
-  <si>
     <t>RT-PCR TESTING</t>
   </si>
   <si>
@@ -1164,6 +969,24 @@
   </si>
   <si>
     <t>case_investigation</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Medic ID</t>
+  </si>
+  <si>
+    <t>select-contact type-suspected_case-create</t>
+  </si>
+  <si>
+    <t>../contact/patient_id</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../contact/_id</t>
   </si>
 </sst>
 </file>
@@ -2393,21 +2216,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z682"/>
+  <dimension ref="A1:Z652"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.33203125" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="71" customWidth="1"/>
@@ -2719,18 +2542,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>183</v>
+      <c r="C9" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2756,16 +2579,16 @@
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>185</v>
+      <c r="B10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
+      <c r="F10" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2787,21 +2610,15 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2818,25 +2635,16 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2853,234 +2661,156 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>195</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3091,32 +2821,31 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3126,137 +2855,69 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3266,32 +2927,25 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3301,32 +2955,31 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -3336,207 +2989,165 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -3546,66 +3157,60 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>22</v>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3616,32 +3221,31 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3651,721 +3255,904 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="F36" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="F37" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="B47" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C47" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-    </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-    </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-    </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-    </row>
-    <row r="46" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+    </row>
+    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+    </row>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E51" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>282</v>
-      </c>
-      <c r="E52" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="B53" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
+      <c r="B57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
+      <c r="A58" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
+      <c r="A59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
+      <c r="A60" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
+      <c r="A61" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
     </row>
     <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -4373,2408 +4160,1423 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+    </row>
+    <row r="64" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="F66" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="F67" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="F68" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
+      <c r="B67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="G68" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32" t="s">
+      <c r="B74" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="B79" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="15"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F80" s="15" t="s">
+      <c r="B82" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
-    </row>
-    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-    </row>
-    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D83" s="15"/>
+        <v>234</v>
+      </c>
+      <c r="D83"/>
       <c r="E83" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
-    </row>
-    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
-    </row>
-    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="B87" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
-    </row>
-    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
-    </row>
-    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="15" t="s">
+      <c r="B90" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
-    </row>
-    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="15"/>
-    </row>
-    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="B91" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+    </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="15"/>
-    </row>
-    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
+      <c r="B95" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+    </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
-    </row>
-    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
+      <c r="B96" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
+    </row>
+    <row r="97" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
-    </row>
-    <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
-    </row>
-    <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="15"/>
-    </row>
-    <row r="94" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="7"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="G98" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
-    <row r="102" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F102" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-    </row>
-    <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-    </row>
-    <row r="104" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-    </row>
-    <row r="105" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="F107" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-    </row>
-    <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F112" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C120" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D121"/>
-      <c r="E121" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
-      <c r="P124" s="12"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="12"/>
-      <c r="S124" s="12"/>
-      <c r="T124" s="12"/>
-      <c r="U124" s="12"/>
-      <c r="V124" s="12"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="12"/>
-    </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" t="s">
-        <v>63</v>
-      </c>
-      <c r="D125" s="5"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
-      <c r="P125" s="12"/>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
-      <c r="S125" s="12"/>
-      <c r="T125" s="12"/>
-      <c r="U125" s="12"/>
-      <c r="V125" s="12"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="12"/>
-      <c r="Y125" s="12"/>
-    </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
-      <c r="T126" s="18"/>
-      <c r="U126" s="18"/>
-      <c r="V126" s="18"/>
-      <c r="W126" s="18"/>
-      <c r="X126" s="18"/>
-      <c r="Y126" s="18"/>
-    </row>
-    <row r="127" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>48</v>
-      </c>
-      <c r="B127" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="I127" s="12"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E128" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E129" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E130" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="21"/>
-      <c r="O131" s="21"/>
-      <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21"/>
-      <c r="S131" s="21"/>
-      <c r="T131" s="21"/>
-      <c r="U131" s="21"/>
-      <c r="V131" s="21"/>
-      <c r="W131" s="21"/>
-      <c r="X131" s="21"/>
-      <c r="Y131" s="21"/>
-    </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F132" t="s">
-        <v>73</v>
-      </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="12"/>
-      <c r="M132" s="12"/>
-      <c r="N132" s="12"/>
-      <c r="O132" s="12"/>
-      <c r="P132" s="12"/>
-      <c r="Q132" s="12"/>
-      <c r="R132" s="12"/>
-      <c r="S132" s="12"/>
-      <c r="T132" s="12"/>
-      <c r="U132" s="12"/>
-      <c r="V132" s="12"/>
-      <c r="W132" s="12"/>
-      <c r="X132" s="12"/>
-      <c r="Y132" s="12"/>
-    </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B133" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
-      <c r="M133" s="12"/>
-      <c r="N133" s="12"/>
-      <c r="O133" s="12"/>
-      <c r="P133" s="12"/>
-      <c r="Q133" s="12"/>
-      <c r="R133" s="12"/>
-      <c r="S133" s="12"/>
-      <c r="T133" s="12"/>
-      <c r="U133" s="12"/>
-      <c r="V133" s="12"/>
-      <c r="W133" s="12"/>
-      <c r="X133" s="12"/>
-      <c r="Y133" s="12"/>
-    </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B134" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
-      <c r="M134" s="12"/>
-      <c r="N134" s="12"/>
-      <c r="O134" s="12"/>
-      <c r="P134" s="12"/>
-      <c r="Q134" s="12"/>
-      <c r="R134" s="12"/>
-      <c r="S134" s="12"/>
-      <c r="T134" s="12"/>
-      <c r="U134" s="12"/>
-      <c r="V134" s="12"/>
-      <c r="W134" s="12"/>
-      <c r="X134" s="12"/>
-      <c r="Y134" s="12"/>
-    </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="12"/>
-      <c r="O135" s="12"/>
-      <c r="P135" s="12"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12"/>
-      <c r="T135" s="12"/>
-      <c r="U135" s="12"/>
-      <c r="V135" s="12"/>
-      <c r="W135" s="12"/>
-      <c r="X135" s="12"/>
-      <c r="Y135" s="12"/>
-    </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B136" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="12"/>
-      <c r="P136" s="12"/>
-      <c r="Q136" s="12"/>
-      <c r="R136" s="12"/>
-      <c r="S136" s="12"/>
-      <c r="T136" s="12"/>
-      <c r="U136" s="12"/>
-      <c r="V136" s="12"/>
-      <c r="W136" s="12"/>
-      <c r="X136" s="12"/>
-      <c r="Y136" s="12"/>
-    </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B137" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="12"/>
-      <c r="P137" s="12"/>
-      <c r="Q137" s="12"/>
-      <c r="R137" s="12"/>
-      <c r="S137" s="12"/>
-      <c r="T137" s="12"/>
-      <c r="U137" s="12"/>
-      <c r="V137" s="12"/>
-      <c r="W137" s="12"/>
-      <c r="X137" s="12"/>
-      <c r="Y137" s="12"/>
-    </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
-      <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
-      <c r="O138" s="12"/>
-      <c r="P138" s="12"/>
-      <c r="Q138" s="12"/>
-      <c r="R138" s="12"/>
-      <c r="S138" s="12"/>
-      <c r="T138" s="12"/>
-      <c r="U138" s="12"/>
-      <c r="V138" s="12"/>
-      <c r="W138" s="12"/>
-      <c r="X138" s="12"/>
-      <c r="Y138" s="12"/>
-    </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="12"/>
-      <c r="P139" s="12"/>
-      <c r="Q139" s="12"/>
-      <c r="R139" s="12"/>
-      <c r="S139" s="12"/>
-      <c r="T139" s="12"/>
-      <c r="U139" s="12"/>
-      <c r="V139" s="12"/>
-      <c r="W139" s="12"/>
-      <c r="X139" s="12"/>
-      <c r="Y139" s="12"/>
-    </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="12"/>
-      <c r="Q140" s="12"/>
-      <c r="R140" s="12"/>
-      <c r="S140" s="12"/>
-      <c r="T140" s="12"/>
-      <c r="U140" s="12"/>
-      <c r="V140" s="12"/>
-      <c r="W140" s="12"/>
-      <c r="X140" s="12"/>
-      <c r="Y140" s="12"/>
-    </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="12"/>
-      <c r="P141" s="12"/>
-      <c r="Q141" s="12"/>
-      <c r="R141" s="12"/>
-      <c r="S141" s="12"/>
-      <c r="T141" s="12"/>
-      <c r="U141" s="12"/>
-      <c r="V141" s="12"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="12"/>
-      <c r="Y141" s="12"/>
-    </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
-      <c r="Q142" s="12"/>
-      <c r="R142" s="12"/>
-      <c r="S142" s="12"/>
-      <c r="T142" s="12"/>
-      <c r="U142" s="12"/>
-      <c r="V142" s="12"/>
-      <c r="W142" s="12"/>
-      <c r="X142" s="12"/>
-      <c r="Y142" s="12"/>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
-      <c r="Q143" s="12"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
-      <c r="T143" s="12"/>
-      <c r="U143" s="12"/>
-      <c r="V143" s="12"/>
-      <c r="W143" s="12"/>
-      <c r="X143" s="12"/>
-      <c r="Y143" s="12"/>
-    </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-      <c r="Q144" s="12"/>
-      <c r="R144" s="12"/>
-      <c r="S144" s="12"/>
-      <c r="T144" s="12"/>
-      <c r="U144" s="12"/>
-      <c r="V144" s="12"/>
-      <c r="W144" s="12"/>
-      <c r="X144" s="12"/>
-      <c r="Y144" s="12"/>
-    </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
-      <c r="Q145" s="12"/>
-      <c r="R145" s="12"/>
-      <c r="S145" s="12"/>
-      <c r="T145" s="12"/>
-      <c r="U145" s="12"/>
-      <c r="V145" s="12"/>
-      <c r="W145" s="12"/>
-      <c r="X145" s="12"/>
-      <c r="Y145" s="12"/>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
-      <c r="Q146" s="12"/>
-      <c r="R146" s="12"/>
-      <c r="S146" s="12"/>
-      <c r="T146" s="12"/>
-      <c r="U146" s="12"/>
-      <c r="V146" s="12"/>
-      <c r="W146" s="12"/>
-      <c r="X146" s="12"/>
-      <c r="Y146" s="12"/>
-    </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
-      <c r="Q147" s="12"/>
-      <c r="R147" s="12"/>
-      <c r="S147" s="12"/>
-      <c r="T147" s="12"/>
-      <c r="U147" s="12"/>
-      <c r="V147" s="12"/>
-      <c r="W147" s="12"/>
-      <c r="X147" s="12"/>
-      <c r="Y147" s="12"/>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-      <c r="Q148" s="12"/>
-      <c r="R148" s="12"/>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12"/>
-      <c r="U148" s="12"/>
-      <c r="V148" s="12"/>
-      <c r="W148" s="12"/>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
-    </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7267,337 +6069,307 @@
     <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A126">
+  <conditionalFormatting sqref="A96">
     <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+  <conditionalFormatting sqref="A97">
     <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80 A57:N61">
+  <conditionalFormatting sqref="E50 A27:N31">
     <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80 A57:N61">
+  <conditionalFormatting sqref="E50 A27:N31">
     <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="56" priority="64">
-      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="55" priority="65">
-      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="54" priority="66">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="53" priority="67">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E57">
     <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E57">
     <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E57">
     <cfRule type="expression" dxfId="50" priority="58">
-      <formula>AND(#REF!="begin group", NOT($B87 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E57">
     <cfRule type="expression" dxfId="49" priority="59">
-      <formula>AND(#REF!="begin repeat", NOT($B87 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E57">
     <cfRule type="expression" dxfId="48" priority="60">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E57">
     <cfRule type="expression" dxfId="47" priority="61">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E72">
     <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E72">
     <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E72">
     <cfRule type="expression" dxfId="44" priority="52">
-      <formula>AND(#REF!="begin group", NOT($B102 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E72">
     <cfRule type="expression" dxfId="43" priority="53">
-      <formula>AND(#REF!="begin repeat", NOT($B102 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E72">
     <cfRule type="expression" dxfId="42" priority="54">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E72">
     <cfRule type="expression" dxfId="41" priority="55">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E77">
     <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E77">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E77">
     <cfRule type="expression" dxfId="38" priority="40">
-      <formula>AND(#REF!="begin group", NOT($B107 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E77">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>AND(#REF!="begin repeat", NOT($B107 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E77">
     <cfRule type="expression" dxfId="36" priority="42">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E77">
     <cfRule type="expression" dxfId="35" priority="43">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E82">
     <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" dxfId="32" priority="34">
-      <formula>AND(#REF!="begin group", NOT($B112 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>AND(#REF!="begin repeat", NOT($B112 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" dxfId="30" priority="36">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" dxfId="29" priority="37">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F61">
+  <conditionalFormatting sqref="A27:F31">
     <cfRule type="expression" dxfId="28" priority="14">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C61">
+  <conditionalFormatting sqref="C27:C31">
     <cfRule type="expression" dxfId="27" priority="16">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B61">
+  <conditionalFormatting sqref="B27:B31">
     <cfRule type="expression" dxfId="26" priority="17">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A61">
+  <conditionalFormatting sqref="A27:A31">
     <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H61">
+  <conditionalFormatting sqref="H27:H31">
     <cfRule type="expression" dxfId="24" priority="19">
-      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+      <formula>AND(NOT($G27 = ""), $H27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F61">
+  <conditionalFormatting sqref="A27:F31">
     <cfRule type="expression" dxfId="23" priority="20">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F61 A57:D61">
+  <conditionalFormatting sqref="F27:F31 A27:D31">
     <cfRule type="expression" dxfId="22" priority="21">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F61 A57:D61">
+  <conditionalFormatting sqref="F27:F31 A27:D31">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
+  <conditionalFormatting sqref="E27:E31">
     <cfRule type="expression" dxfId="20" priority="23">
-      <formula>AND($E57 = "", $A57 = "calculate")</formula>
+      <formula>AND($E27 = "", $A27 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
+  <conditionalFormatting sqref="E27:E31">
     <cfRule type="expression" dxfId="19" priority="24">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
+  <conditionalFormatting sqref="E27:E31">
     <cfRule type="expression" dxfId="18" priority="25">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
+  <conditionalFormatting sqref="G27:N31">
     <cfRule type="expression" dxfId="17" priority="27">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:I61">
+  <conditionalFormatting sqref="I27:I31">
     <cfRule type="expression" dxfId="16" priority="28">
-      <formula>AND($I57 = "", #REF! = "calculate")</formula>
+      <formula>AND($I27 = "", #REF! = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
+  <conditionalFormatting sqref="G27:N31">
     <cfRule type="expression" dxfId="15" priority="29">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
+  <conditionalFormatting sqref="G27:N31">
     <cfRule type="expression" dxfId="14" priority="30">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
+  <conditionalFormatting sqref="G27:N31">
     <cfRule type="expression" dxfId="13" priority="31">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="E28">
     <cfRule type="expression" dxfId="12" priority="9">
-      <formula>AND(#REF!="begin group", NOT($B57 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="E28">
     <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(#REF!="begin repeat", NOT($B57 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
+  <conditionalFormatting sqref="E28:E29">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
+  <conditionalFormatting sqref="E28:E29">
     <cfRule type="expression" dxfId="9" priority="12">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
+  <conditionalFormatting sqref="E30:E31">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
+  <conditionalFormatting sqref="E30:E31">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
+  <conditionalFormatting sqref="E30:E31">
     <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND(#REF!="begin group", NOT($B59 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
+  <conditionalFormatting sqref="E30:E31">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(#REF!="begin repeat", NOT($B59 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
+  <conditionalFormatting sqref="E30:E31">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
+  <conditionalFormatting sqref="E30:E31">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND(#REF!="begin group", NOT($B58 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="1" priority="75">
-      <formula>AND(#REF!="begin repeat", NOT($B58 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B61">
+  <conditionalFormatting sqref="B27:B31">
     <cfRule type="expression" dxfId="0" priority="106">
-      <formula>COUNTIF($B$2:$B$1003,B57)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$973,B27)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D57:D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D27:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7665,7 +6437,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>44</v>
@@ -7697,7 +6469,7 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
@@ -7819,13 +6591,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7851,13 +6623,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7909,13 +6681,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7941,13 +6713,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8002,10 +6774,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8034,10 +6806,10 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8048,7 +6820,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8237,10 +7009,10 @@
         <v>161</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8258,7 +7030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8322,11 +7094,11 @@
         <v>99</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44880.024412962965</v>
+        <v>44900.854299189814</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Case Investigation and Suspect Create Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3607EEB-56EB-4680-9132-C60D8B6C5373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49678D5-06A8-4153-945B-292842BCE569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="297">
   <si>
     <t>type</t>
   </si>
@@ -662,6 +662,21 @@
     <t>_id</t>
   </si>
   <si>
+    <t>National ID Number</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
+    <t>alien_number</t>
+  </si>
+  <si>
+    <t>Alien Number</t>
+  </si>
+  <si>
     <t>rtpcr</t>
   </si>
   <si>
@@ -732,6 +747,9 @@
   </si>
   <si>
     <t>concat(${username},'-',${monotonic_counter})</t>
+  </si>
+  <si>
+    <t>national_id</t>
   </si>
   <si>
     <t>RT-PCR TESTING</t>
@@ -1241,7 +1259,189 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="82">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2216,11 +2416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z652"/>
+  <dimension ref="A1:Z655"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2548,12 +2748,12 @@
         <v>181</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2583,13 +2783,11 @@
         <v>33</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2610,15 +2808,19 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2635,16 +2837,23 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2661,446 +2870,450 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="C24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
+      <c r="B29" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>265</v>
-      </c>
+      <c r="E30" s="37"/>
       <c r="F30" s="37" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -3113,22 +3326,22 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>271</v>
-      </c>
       <c r="C31" s="32" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -3140,109 +3353,95 @@
       <c r="N31" s="37"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="A32" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="A33" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="A34" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3267,20 +3466,15 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>127</v>
-      </c>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="32" t="s">
-        <v>134</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -3295,94 +3489,95 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="F37" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="F38" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
+      <c r="F39" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -3404,21 +3599,18 @@
     </row>
     <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
+      <c r="F40" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -3440,21 +3632,18 @@
     </row>
     <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
+      <c r="F41" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -3479,14 +3668,14 @@
         <v>48</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -3515,14 +3704,14 @@
         <v>48</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -3546,116 +3735,126 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3675,115 +3874,111 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
+      <c r="A49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>244</v>
+      <c r="A50" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="37" t="s">
-        <v>243</v>
-      </c>
+      <c r="E50" s="15"/>
       <c r="F50" s="15" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>221</v>
-      </c>
+      <c r="A51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="33" t="s">
-        <v>118</v>
-      </c>
+      <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -3807,19 +4002,11 @@
       <c r="Z51" s="15"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>221</v>
-      </c>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="33" t="s">
-        <v>120</v>
-      </c>
+      <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -3843,20 +4030,22 @@
       <c r="Z52" s="15"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>222</v>
+      <c r="A53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="E53" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="15"/>
+      <c r="E53" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -3883,14 +4072,14 @@
         <v>48</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="35" t="s">
-        <v>223</v>
+      <c r="E54" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -3915,13 +4104,19 @@
       <c r="Z54" s="15"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>227</v>
+      </c>
       <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -3945,11 +4140,19 @@
       <c r="Z55" s="15"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>228</v>
+      </c>
       <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="E56" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -3973,22 +4176,20 @@
       <c r="Z56" s="15"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>245</v>
+      <c r="A57" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="D57" s="15"/>
-      <c r="E57" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E57" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -4011,19 +4212,13 @@
       <c r="Z57" s="15"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="A58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -4047,19 +4242,11 @@
       <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -4083,20 +4270,22 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>222</v>
+      <c r="A60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="15"/>
+      <c r="E60" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -4123,14 +4312,14 @@
         <v>48</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -4155,13 +4344,19 @@
       <c r="Z61" s="15"/>
     </row>
     <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -4185,11 +4380,19 @@
       <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -4212,355 +4415,393 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+    </row>
+    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+    </row>
+    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="33" t="s">
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+    </row>
+    <row r="67" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="G68" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="E69" s="7"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="I69" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="G71" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D72"/>
-      <c r="E72" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>250</v>
-      </c>
+    <row r="74" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
       <c r="D74"/>
-      <c r="E74" s="33" t="s">
-        <v>172</v>
-      </c>
+      <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>254</v>
+      </c>
       <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
+      <c r="E75" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
+    <row r="76" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>249</v>
+    <row r="77" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="D77"/>
-      <c r="E77" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E77" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>211</v>
-      </c>
+    <row r="78" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>251</v>
-      </c>
+    <row r="79" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
       <c r="D79"/>
-      <c r="E79" s="33" t="s">
-        <v>172</v>
-      </c>
+      <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
+      <c r="E80" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
+    <row r="81" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>206</v>
+    <row r="82" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="D82"/>
-      <c r="E82" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E82" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>234</v>
-      </c>
+    <row r="83" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
       <c r="D83"/>
-      <c r="E83" s="33" t="s">
-        <v>173</v>
-      </c>
+      <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
+    <row r="84" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
@@ -4569,64 +4810,66 @@
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
+    <row r="85" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>212</v>
+      </c>
       <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
+      <c r="E85" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>261</v>
+    <row r="86" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E86" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>228</v>
-      </c>
+    <row r="87" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87"/>
-      <c r="E87" s="33" t="s">
-        <v>229</v>
-      </c>
+      <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
+    <row r="88" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
@@ -4635,64 +4878,64 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
+    <row r="89" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>267</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89"/>
+      <c r="F89" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>260</v>
+    <row r="90" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E90" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>228</v>
-      </c>
+    <row r="91" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
       <c r="D91"/>
-      <c r="E91" s="33" t="s">
-        <v>259</v>
-      </c>
+      <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
+    <row r="92" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
@@ -4701,335 +4944,278 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
+    <row r="93" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>266</v>
+      </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93"/>
+      <c r="F93" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="14" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
-      <c r="Y94" s="12"/>
-    </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B98" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="12"/>
-      <c r="Y95" s="12"/>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="18" t="s">
+      <c r="D98" s="5"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B99" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C99" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
-      <c r="Y96" s="18"/>
-    </row>
-    <row r="97" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+      <c r="V99" s="18"/>
+      <c r="W99" s="18"/>
+      <c r="X99" s="18"/>
+      <c r="Y99" s="18"/>
+    </row>
+    <row r="100" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>48</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="C100" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C101" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E98" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="E101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C102" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="E102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C103" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E100" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="21" t="s">
+      <c r="E103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B104" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C104" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21" t="s">
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-    </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
-      <c r="U102" s="12"/>
-      <c r="V102" s="12"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
-    </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12"/>
-      <c r="U103" s="12"/>
-      <c r="V103" s="12"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="12"/>
-      <c r="Y103" s="12"/>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F105" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" t="s">
         <v>73</v>
       </c>
       <c r="G105" s="12"/>
@@ -5057,14 +5243,14 @@
         <v>48</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>73</v>
@@ -5094,14 +5280,14 @@
         <v>48</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>73</v>
@@ -5131,14 +5317,14 @@
         <v>48</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>73</v>
@@ -5168,14 +5354,14 @@
         <v>48</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>73</v>
@@ -5205,14 +5391,14 @@
         <v>48</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>73</v>
@@ -5242,14 +5428,14 @@
         <v>48</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>73</v>
@@ -5279,14 +5465,14 @@
         <v>48</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>73</v>
@@ -5316,14 +5502,14 @@
         <v>48</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>73</v>
@@ -5353,14 +5539,14 @@
         <v>48</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>73</v>
@@ -5390,14 +5576,14 @@
         <v>48</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>73</v>
@@ -5427,14 +5613,14 @@
         <v>48</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>73</v>
@@ -5464,14 +5650,14 @@
         <v>48</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>73</v>
@@ -5500,24 +5686,26 @@
       <c r="A118" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
+      <c r="B118" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
       <c r="N118" s="12"/>
       <c r="O118" s="12"/>
       <c r="P118" s="12"/>
@@ -5532,13 +5720,119 @@
       <c r="Y118" s="12"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6069,307 +6363,310 @@
     <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50 A27:N31">
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E53 A30:N34">
+    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50 A27:N31">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+  <conditionalFormatting sqref="E53 A30:N34">
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>AND(#REF!="begin group", NOT($B50 = ""))</formula>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="76" priority="84">
+      <formula>AND(#REF!="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="55" priority="65">
-      <formula>AND(#REF!="begin repeat", NOT($B50 = ""))</formula>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="75" priority="85">
+      <formula>AND(#REF!="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="54" priority="66">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="53" priority="67">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="73" priority="87">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>AND(#REF!="begin group", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="70" priority="78">
+      <formula>AND(#REF!="begin group", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="49" priority="59">
-      <formula>AND(#REF!="begin repeat", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="69" priority="79">
+      <formula>AND(#REF!="begin repeat", NOT($B60 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="48" priority="60">
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="47" priority="61">
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="67" priority="81">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="44" priority="52">
-      <formula>AND(#REF!="begin group", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="64" priority="72">
+      <formula>AND(#REF!="begin group", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="43" priority="53">
-      <formula>AND(#REF!="begin repeat", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="63" priority="73">
+      <formula>AND(#REF!="begin repeat", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="42" priority="54">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="41" priority="55">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="61" priority="75">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>AND(#REF!="begin group", NOT($B77 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="58" priority="60">
+      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>AND(#REF!="begin repeat", NOT($B77 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="57" priority="61">
+      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="36" priority="42">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="56" priority="62">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="35" priority="43">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>AND(#REF!="begin group", NOT($B82 = ""))</formula>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="52" priority="54">
+      <formula>AND(#REF!="begin group", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>AND(#REF!="begin repeat", NOT($B82 = ""))</formula>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>AND(#REF!="begin repeat", NOT($B85 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="30" priority="36">
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="29" priority="37">
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F31">
-    <cfRule type="expression" dxfId="28" priority="14">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+  <conditionalFormatting sqref="A30:F34">
+    <cfRule type="expression" dxfId="48" priority="34">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C31">
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
+  <conditionalFormatting sqref="C30:C34">
+    <cfRule type="expression" dxfId="47" priority="36">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B31">
-    <cfRule type="expression" dxfId="26" priority="17">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
+  <conditionalFormatting sqref="B30:B34">
+    <cfRule type="expression" dxfId="46" priority="37">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A31">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+  <conditionalFormatting sqref="A30:A34">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H31">
-    <cfRule type="expression" dxfId="24" priority="19">
-      <formula>AND(NOT($G27 = ""), $H27 = "")</formula>
+  <conditionalFormatting sqref="H30:H34">
+    <cfRule type="expression" dxfId="44" priority="39">
+      <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F31">
-    <cfRule type="expression" dxfId="23" priority="20">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+  <conditionalFormatting sqref="A30:F34">
+    <cfRule type="expression" dxfId="43" priority="40">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31 A27:D31">
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+  <conditionalFormatting sqref="F30:F34 A30:D34">
+    <cfRule type="expression" dxfId="42" priority="41">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31 A27:D31">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+  <conditionalFormatting sqref="F30:F34 A30:D34">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E31">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>AND($E27 = "", $A27 = "calculate")</formula>
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="expression" dxfId="40" priority="43">
+      <formula>AND($E30 = "", $A30 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E31">
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="expression" dxfId="39" priority="44">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E31">
-    <cfRule type="expression" dxfId="18" priority="25">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="expression" dxfId="38" priority="45">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:N31">
-    <cfRule type="expression" dxfId="17" priority="27">
+  <conditionalFormatting sqref="G30:N34">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I31">
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>AND($I27 = "", #REF! = "calculate")</formula>
+  <conditionalFormatting sqref="I30:I34">
+    <cfRule type="expression" dxfId="36" priority="48">
+      <formula>AND($I30 = "", #REF! = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:N31">
-    <cfRule type="expression" dxfId="15" priority="29">
+  <conditionalFormatting sqref="G30:N34">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:N31">
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+  <conditionalFormatting sqref="G30:N34">
+    <cfRule type="expression" dxfId="34" priority="50">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:N31">
-    <cfRule type="expression" dxfId="13" priority="31">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+  <conditionalFormatting sqref="G30:N34">
+    <cfRule type="expression" dxfId="33" priority="51">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>AND(#REF!="begin group", NOT($B27 = ""))</formula>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="32" priority="29">
+      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(#REF!="begin repeat", NOT($B27 = ""))</formula>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>AND(#REF!="begin group", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>AND(#REF!="begin repeat", NOT($B32 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND(#REF!="begin group", NOT($B28 = ""))</formula>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="22" priority="93">
+      <formula>AND(#REF!="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="1" priority="75">
-      <formula>AND(#REF!="begin repeat", NOT($B28 = ""))</formula>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="21" priority="95">
+      <formula>AND(#REF!="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B31">
-    <cfRule type="expression" dxfId="0" priority="106">
-      <formula>COUNTIF($B$2:$B$973,B27)&gt;1</formula>
+  <conditionalFormatting sqref="B30:B34">
+    <cfRule type="expression" dxfId="20" priority="126">
+      <formula>COUNTIF($B$2:$B$976,B30)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D27:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D30:D34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6437,7 +6734,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>44</v>
@@ -6469,7 +6766,7 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
@@ -6591,13 +6888,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -6623,13 +6920,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -6681,13 +6978,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -6713,13 +7010,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -6774,10 +7071,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -6806,10 +7103,10 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6820,7 +7117,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7009,10 +7306,10 @@
         <v>161</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -7094,11 +7391,11 @@
         <v>99</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44900.854299189814</v>
+        <v>44900.861664583332</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Case Investigation and Suspect Create Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49678D5-06A8-4153-945B-292842BCE569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57082727-B138-410D-A062-90666E95689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>patient_name</t>
   </si>
   <si>
-    <t>../inputs/contact/name</t>
-  </si>
-  <si>
     <t>NO_LABEL</t>
   </si>
   <si>
@@ -998,13 +995,16 @@
     <t>select-contact type-suspected_case-create</t>
   </si>
   <si>
-    <t>../contact/patient_id</t>
-  </si>
-  <si>
     <t>patient_uuid</t>
   </si>
   <si>
-    <t>../contact/_id</t>
+    <t>${_id}</t>
+  </si>
+  <si>
+    <t>${patient_id}</t>
+  </si>
+  <si>
+    <t>${name}</t>
   </si>
 </sst>
 </file>
@@ -2418,9 +2418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z655"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2745,15 +2745,15 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2783,7 +2783,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2813,10 +2813,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2846,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>184</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2879,10 +2879,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2973,7 +2973,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2998,7 +2998,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3007,7 +3007,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -3041,7 +3041,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3066,10 +3066,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3077,10 +3077,10 @@
         <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3088,10 +3088,10 @@
         <v>32</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3099,10 +3099,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3166,44 +3166,44 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3269,10 +3269,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3300,20 +3300,20 @@
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>269</v>
-      </c>
       <c r="C30" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>271</v>
-      </c>
       <c r="F31" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -3354,22 +3354,22 @@
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>273</v>
-      </c>
       <c r="D32" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -3382,22 +3382,22 @@
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>275</v>
-      </c>
       <c r="D33" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -3410,22 +3410,22 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="C34" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="D34" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>279</v>
-      </c>
       <c r="F34" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -3499,10 +3499,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3566,17 +3566,17 @@
     </row>
     <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="32" t="s">
-        <v>112</v>
-      </c>
       <c r="C39" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5"/>
       <c r="F39" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -3599,17 +3599,17 @@
     </row>
     <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>114</v>
-      </c>
       <c r="C40" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="5"/>
       <c r="F40" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -3632,17 +3632,17 @@
     </row>
     <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="C41" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="5"/>
       <c r="F41" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -3665,17 +3665,17 @@
     </row>
     <row r="42" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -3701,17 +3701,17 @@
     </row>
     <row r="43" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -3737,17 +3737,17 @@
     </row>
     <row r="44" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -3773,17 +3773,17 @@
     </row>
     <row r="45" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -3809,17 +3809,17 @@
     </row>
     <row r="46" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -3906,10 +3906,10 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3937,18 +3937,18 @@
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -4034,14 +4034,14 @@
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>21</v>
@@ -4069,17 +4069,17 @@
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -4105,17 +4105,17 @@
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -4141,17 +4141,17 @@
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -4177,17 +4177,17 @@
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -4274,14 +4274,14 @@
         <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>21</v>
@@ -4309,17 +4309,17 @@
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -4345,17 +4345,17 @@
     </row>
     <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -4381,17 +4381,17 @@
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -4417,17 +4417,17 @@
     </row>
     <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -4514,10 +4514,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>21</v>
@@ -4528,7 +4528,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -4536,7 +4536,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4544,7 +4544,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="6"/>
@@ -4552,18 +4552,18 @@
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -4572,39 +4572,39 @@
     </row>
     <row r="71" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E71" s="6"/>
       <c r="G71" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4631,14 +4631,14 @@
         <v>17</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>21</v>
@@ -4650,22 +4650,22 @@
     </row>
     <row r="76" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="32" t="s">
-        <v>167</v>
-      </c>
       <c r="C76" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -4674,17 +4674,17 @@
     </row>
     <row r="77" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
@@ -4723,14 +4723,14 @@
         <v>17</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>21</v>
@@ -4742,22 +4742,22 @@
     </row>
     <row r="81" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -4766,17 +4766,17 @@
     </row>
     <row r="82" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
@@ -4815,14 +4815,14 @@
         <v>17</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>21</v>
@@ -4834,17 +4834,17 @@
     </row>
     <row r="86" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
@@ -4883,10 +4883,10 @@
         <v>17</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -4900,17 +4900,17 @@
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
@@ -4949,10 +4949,10 @@
         <v>17</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -4966,17 +4966,17 @@
     </row>
     <row r="94" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
@@ -5015,15 +5015,15 @@
         <v>17</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="3"/>
       <c r="F97" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -5047,13 +5047,13 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" t="s">
         <v>62</v>
-      </c>
-      <c r="C98" t="s">
-        <v>63</v>
       </c>
       <c r="D98" s="5"/>
       <c r="F98" s="12"/>
@@ -5079,18 +5079,18 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
@@ -5114,72 +5114,72 @@
     </row>
     <row r="100" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I100" s="12"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C101" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
@@ -5203,20 +5203,20 @@
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -5240,20 +5240,20 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B106" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -5277,20 +5277,20 @@
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -5314,20 +5314,20 @@
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>142</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -5351,20 +5351,20 @@
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -5388,20 +5388,20 @@
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -5425,20 +5425,20 @@
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -5462,20 +5462,20 @@
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>149</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -5499,20 +5499,20 @@
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -5536,20 +5536,20 @@
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B114" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -5573,20 +5573,20 @@
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B115" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -5610,20 +5610,20 @@
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -5647,20 +5647,20 @@
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B117" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -5684,20 +5684,20 @@
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
@@ -5721,20 +5721,20 @@
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B119" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -5758,20 +5758,20 @@
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -5795,18 +5795,18 @@
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -6698,7 +6698,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
@@ -6710,7 +6710,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -6734,13 +6734,13 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -6766,13 +6766,13 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -6798,13 +6798,13 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -6830,13 +6830,13 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -6888,13 +6888,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -6920,13 +6920,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -6978,13 +6978,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7010,13 +7010,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -7068,13 +7068,13 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -7100,178 +7100,178 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
         <v>237</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7281,35 +7281,35 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -7346,25 +7346,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7388,23 +7388,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44900.861664583332</v>
+        <v>44900.863955787034</v>
       </c>
       <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8413,15 +8413,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="11"/>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="28"/>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="29"/>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="30"/>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Case Investigation and Suspect Create Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57082727-B138-410D-A062-90666E95689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0C52E-EE2C-443C-920C-E2424404F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="295">
   <si>
     <t>type</t>
   </si>
@@ -995,13 +995,7 @@
     <t>select-contact type-suspected_case-create</t>
   </si>
   <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
     <t>${_id}</t>
-  </si>
-  <si>
-    <t>${patient_id}</t>
   </si>
   <si>
     <t>${name}</t>
@@ -2416,11 +2410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z655"/>
+  <dimension ref="A1:Z654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2973,7 +2967,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2994,11 +2988,11 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>293</v>
+      <c r="B17" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3006,8 +3000,8 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="20" t="s">
-        <v>295</v>
+      <c r="I17" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -3027,49 +3021,26 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3077,38 +3048,61 @@
         <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="10" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3130,52 +3124,32 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -3183,33 +3157,47 @@
         <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" t="s">
         <v>219</v>
       </c>
     </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3237,9 +3225,15 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3265,53 +3259,47 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
+      <c r="A29" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>267</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="33" t="s">
+        <v>270</v>
+      </c>
       <c r="F30" s="37" t="s">
         <v>216</v>
       </c>
@@ -3329,16 +3317,16 @@
         <v>267</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F31" s="37" t="s">
         <v>216</v>
@@ -3357,16 +3345,16 @@
         <v>267</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>216</v>
@@ -3382,19 +3370,19 @@
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F33" s="37" t="s">
         <v>216</v>
@@ -3409,86 +3397,94 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -3496,19 +3492,17 @@
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3530,49 +3524,48 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
+    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="5"/>
       <c r="F39" s="32" t="s">
@@ -3599,13 +3592,13 @@
     </row>
     <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="5"/>
       <c r="F40" s="32" t="s">
@@ -3632,18 +3625,21 @@
     </row>
     <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="F41" s="32" t="s">
-        <v>133</v>
-      </c>
+      <c r="E41" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -3668,14 +3664,14 @@
         <v>47</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -3704,14 +3700,14 @@
         <v>47</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -3740,14 +3736,14 @@
         <v>47</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -3776,14 +3772,14 @@
         <v>47</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -3807,54 +3803,46 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3874,15 +3862,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3902,21 +3896,23 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="A49" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3936,47 +3932,39 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>242</v>
-      </c>
+      <c r="A50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="15" t="s">
-        <v>216</v>
-      </c>
+      <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -4002,12 +3990,22 @@
       <c r="Z51" s="15"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="E52" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -4030,22 +4028,20 @@
       <c r="Z52" s="15"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>249</v>
+      <c r="A53" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="E53" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E53" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -4072,14 +4068,14 @@
         <v>47</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>226</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -4108,14 +4104,14 @@
         <v>47</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -4144,14 +4140,14 @@
         <v>47</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>227</v>
       </c>
       <c r="D56" s="15"/>
-      <c r="E56" s="33" t="s">
-        <v>121</v>
+      <c r="E56" s="35" t="s">
+        <v>228</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -4176,19 +4172,13 @@
       <c r="Z56" s="15"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>227</v>
-      </c>
+      <c r="A57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="35" t="s">
-        <v>228</v>
-      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -4212,11 +4202,9 @@
       <c r="Z57" s="15"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -4242,12 +4230,22 @@
       <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="A59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -4270,22 +4268,20 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>250</v>
+      <c r="A60" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="D60" s="15"/>
-      <c r="E60" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E60" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -4312,14 +4308,14 @@
         <v>47</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>251</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -4348,14 +4344,14 @@
         <v>47</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -4384,14 +4380,14 @@
         <v>47</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>227</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -4416,19 +4412,13 @@
       <c r="Z63" s="15"/>
     </row>
     <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>227</v>
-      </c>
+      <c r="A64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>228</v>
-      </c>
+      <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -4452,11 +4442,9 @@
       <c r="Z64" s="15"/>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -4481,46 +4469,34 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-    </row>
-    <row r="67" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+    <row r="66" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F66" s="14" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="33" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4528,7 +4504,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -4536,112 +4512,120 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
-      <c r="I69" s="33" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="70" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="G70" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="71" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="G71" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
     </row>
     <row r="74" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
+      <c r="A74" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>253</v>
+      </c>
       <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
+      <c r="E74" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
     </row>
     <row r="75" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>21</v>
+      <c r="A75" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -4650,42 +4634,32 @@
     </row>
     <row r="76" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>43</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D76"/>
       <c r="E76" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>216</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
     </row>
     <row r="77" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>255</v>
-      </c>
+      <c r="A77" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="D77"/>
-      <c r="E77" s="33" t="s">
-        <v>171</v>
-      </c>
+      <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -4693,11 +4667,9 @@
       <c r="J77"/>
     </row>
     <row r="78" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
@@ -4707,89 +4679,89 @@
       <c r="J78"/>
     </row>
     <row r="79" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
+      <c r="A79" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>254</v>
+      </c>
       <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
+      <c r="E79" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
     </row>
     <row r="80" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>21</v>
+      <c r="A80" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>43</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D81"/>
       <c r="E81" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>216</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>256</v>
-      </c>
+    <row r="82" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
       <c r="D82"/>
-      <c r="E82" s="33" t="s">
-        <v>171</v>
-      </c>
+      <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+    <row r="83" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
@@ -4798,66 +4770,66 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
+    <row r="84" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>211</v>
+      </c>
       <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
+      <c r="E84" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>211</v>
+    <row r="85" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="D85"/>
-      <c r="E85" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E85" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>239</v>
-      </c>
+    <row r="86" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
       <c r="D86"/>
-      <c r="E86" s="33" t="s">
-        <v>172</v>
-      </c>
+      <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+    <row r="87" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
@@ -4866,64 +4838,64 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
+    <row r="88" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>266</v>
+      </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88"/>
+      <c r="F88" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>266</v>
+    <row r="89" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E89" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>233</v>
-      </c>
+    <row r="90" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
       <c r="D90"/>
-      <c r="E90" s="33" t="s">
-        <v>234</v>
-      </c>
+      <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+    <row r="91" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
@@ -4932,64 +4904,64 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
+    <row r="92" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>265</v>
+      </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92"/>
+      <c r="F92" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>265</v>
+    <row r="93" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E93" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>233</v>
-      </c>
+    <row r="94" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
       <c r="D94"/>
-      <c r="E94" s="33" t="s">
-        <v>264</v>
-      </c>
+      <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+    <row r="95" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
@@ -4998,40 +4970,60 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="A97" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
       <c r="N97" s="12"/>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
@@ -5046,96 +5038,78 @@
       <c r="Y97" s="12"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
-      <c r="U98" s="12"/>
-      <c r="V98" s="12"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="12"/>
-      <c r="Y98" s="12"/>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
+      <c r="B98" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="18"/>
+      <c r="V98" s="18"/>
+      <c r="W98" s="18"/>
+      <c r="X98" s="18"/>
+      <c r="Y98" s="18"/>
+    </row>
+    <row r="99" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-    </row>
-    <row r="100" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="I100" s="12"/>
+      <c r="B100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
@@ -5143,79 +5117,102 @@
         <v>47</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E103" t="s">
-        <v>219</v>
-      </c>
+      <c r="B103" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B104" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
+      <c r="B104" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F104" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F105" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G105" s="12"/>
@@ -5243,14 +5240,14 @@
         <v>47</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>72</v>
@@ -5280,14 +5277,14 @@
         <v>47</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>72</v>
@@ -5317,14 +5314,14 @@
         <v>47</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F108" s="12" t="s">
         <v>72</v>
@@ -5354,14 +5351,14 @@
         <v>47</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>72</v>
@@ -5391,14 +5388,14 @@
         <v>47</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>72</v>
@@ -5428,14 +5425,14 @@
         <v>47</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F111" s="12" t="s">
         <v>72</v>
@@ -5465,14 +5462,14 @@
         <v>47</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>72</v>
@@ -5502,14 +5499,14 @@
         <v>47</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>72</v>
@@ -5539,14 +5536,14 @@
         <v>47</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>72</v>
@@ -5576,14 +5573,14 @@
         <v>47</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>72</v>
@@ -5613,14 +5610,14 @@
         <v>47</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>72</v>
@@ -5650,14 +5647,14 @@
         <v>47</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>72</v>
@@ -5687,14 +5684,14 @@
         <v>47</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>72</v>
@@ -5724,14 +5721,14 @@
         <v>47</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>72</v>
@@ -5760,26 +5757,24 @@
       <c r="A120" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
+      <c r="B120" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
       <c r="N120" s="12"/>
       <c r="O120" s="12"/>
       <c r="P120" s="12"/>
@@ -5794,45 +5789,11 @@
       <c r="Y120" s="12"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-      <c r="U121" s="12"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="A121" s="4" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6365,308 +6326,307 @@
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A98">
     <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A99">
     <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
+  <conditionalFormatting sqref="A103">
     <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53 A30:N34">
+  <conditionalFormatting sqref="E52 A29:N33">
     <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53 A30:N34">
+  <conditionalFormatting sqref="E52 A29:N33">
     <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="76" priority="84">
-      <formula>AND(#REF!="begin group", NOT($B53 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="75" priority="85">
-      <formula>AND(#REF!="begin repeat", NOT($B53 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B52 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="74" priority="86">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="73" priority="87">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E59">
     <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E59">
     <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="70" priority="78">
-      <formula>AND(#REF!="begin group", NOT($B60 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="69" priority="79">
-      <formula>AND(#REF!="begin repeat", NOT($B60 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="68" priority="80">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="67" priority="81">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E74">
     <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E74">
     <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E74">
     <cfRule type="expression" dxfId="64" priority="72">
-      <formula>AND(#REF!="begin group", NOT($B75 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E74">
     <cfRule type="expression" dxfId="63" priority="73">
-      <formula>AND(#REF!="begin repeat", NOT($B75 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B74 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E74">
     <cfRule type="expression" dxfId="62" priority="74">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E74">
     <cfRule type="expression" dxfId="61" priority="75">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E79">
     <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E79">
     <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E79">
     <cfRule type="expression" dxfId="58" priority="60">
-      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E79">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E79">
     <cfRule type="expression" dxfId="56" priority="62">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E79">
     <cfRule type="expression" dxfId="55" priority="63">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" dxfId="52" priority="54">
-      <formula>AND(#REF!="begin group", NOT($B85 = ""))</formula>
+      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>AND(#REF!="begin repeat", NOT($B85 = ""))</formula>
+      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" dxfId="50" priority="56">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" dxfId="49" priority="57">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:F34">
+  <conditionalFormatting sqref="A29:F33">
     <cfRule type="expression" dxfId="48" priority="34">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C34">
+  <conditionalFormatting sqref="C29:C33">
     <cfRule type="expression" dxfId="47" priority="36">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B34">
+  <conditionalFormatting sqref="B29:B33">
     <cfRule type="expression" dxfId="46" priority="37">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A34">
+  <conditionalFormatting sqref="A29:A33">
     <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H34">
+  <conditionalFormatting sqref="H29:H33">
     <cfRule type="expression" dxfId="44" priority="39">
-      <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
+      <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:F34">
+  <conditionalFormatting sqref="A29:F33">
     <cfRule type="expression" dxfId="43" priority="40">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34 A30:D34">
+  <conditionalFormatting sqref="F29:F33 A29:D33">
     <cfRule type="expression" dxfId="42" priority="41">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34 A30:D34">
+  <conditionalFormatting sqref="F29:F33 A29:D33">
     <cfRule type="expression" dxfId="41" priority="42">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E34">
+  <conditionalFormatting sqref="E29:E33">
     <cfRule type="expression" dxfId="40" priority="43">
-      <formula>AND($E30 = "", $A30 = "calculate")</formula>
+      <formula>AND($E29 = "", $A29 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E34">
+  <conditionalFormatting sqref="E29:E33">
     <cfRule type="expression" dxfId="39" priority="44">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E34">
+  <conditionalFormatting sqref="E29:E33">
     <cfRule type="expression" dxfId="38" priority="45">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:N34">
+  <conditionalFormatting sqref="G29:N33">
     <cfRule type="expression" dxfId="37" priority="47">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I34">
+  <conditionalFormatting sqref="I29:I33">
     <cfRule type="expression" dxfId="36" priority="48">
-      <formula>AND($I30 = "", #REF! = "calculate")</formula>
+      <formula>AND($I29 = "", #REF! = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:N34">
+  <conditionalFormatting sqref="G29:N33">
     <cfRule type="expression" dxfId="35" priority="49">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:N34">
+  <conditionalFormatting sqref="G29:N33">
     <cfRule type="expression" dxfId="34" priority="50">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:N34">
+  <conditionalFormatting sqref="G29:N33">
     <cfRule type="expression" dxfId="33" priority="51">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="32" priority="29">
+      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="expression" dxfId="29" priority="32">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>AND(#REF!="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>AND(#REF!="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="22" priority="93">
       <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="21" priority="95">
       <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="29" priority="32">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>AND(#REF!="begin group", NOT($B32 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>AND(#REF!="begin repeat", NOT($B32 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="22" priority="93">
-      <formula>AND(#REF!="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="21" priority="95">
-      <formula>AND(#REF!="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B34">
+  <conditionalFormatting sqref="B29:B33">
     <cfRule type="expression" dxfId="20" priority="126">
-      <formula>COUNTIF($B$2:$B$976,B30)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$975,B29)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D30:D34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D29:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7395,7 +7355,7 @@
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44900.863955787034</v>
+        <v>44900.865419560185</v>
       </c>
       <c r="D2" t="s">
         <v>99</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Case Investigation and Suspect Create Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0C52E-EE2C-443C-920C-E2424404F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCD4D6-A621-4BAF-A7BA-F5BA51CDC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="350">
   <si>
     <t>type</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>patient_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
   </si>
   <si>
     <t>NO_LABEL</t>
@@ -656,9 +659,51 @@
     <t>selected(${tb},'weight_sy')</t>
   </si>
   <si>
+    <t>db:trace_contact</t>
+  </si>
+  <si>
     <t>_id</t>
   </si>
   <si>
+    <t>What is the traveller's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>contact_type</t>
+  </si>
+  <si>
+    <t>Contact Type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Type of Contact</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
     <t>National ID Number</t>
   </si>
   <si>
@@ -674,6 +719,138 @@
     <t>Alien Number</t>
   </si>
   <si>
+    <t>s_name</t>
+  </si>
+  <si>
+    <t>f_name</t>
+  </si>
+  <si>
+    <t>o_name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Other name(s)</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>dob_known</t>
+  </si>
+  <si>
+    <t>Does the contact know their date of birth?</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>alternate_phone</t>
+  </si>
+  <si>
+    <t>Alternate Phone</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>subcounty</t>
+  </si>
+  <si>
+    <t>Sub County</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>Village/ township of residence</t>
+  </si>
+  <si>
+    <t>pick_up</t>
+  </si>
+  <si>
+    <t>Pick up point</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>nearest_health_center</t>
+  </si>
+  <si>
+    <t>Nearest Health Centre</t>
+  </si>
+  <si>
+    <t>kin_name</t>
+  </si>
+  <si>
+    <t>Next of Kin Name</t>
+  </si>
+  <si>
+    <t>kin_phone_number</t>
+  </si>
+  <si>
+    <t>kin_relationship</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Phone Nember</t>
+  </si>
+  <si>
+    <t>nhif_cover</t>
+  </si>
+  <si>
+    <t>NHIF cover</t>
+  </si>
+  <si>
     <t>rtpcr</t>
   </si>
   <si>
@@ -728,6 +905,9 @@
     <t>&lt;b&gt;Patient information&lt;/b&gt;</t>
   </si>
   <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
     <t>instance('contact-summary')/context/monotonic_counter</t>
   </si>
   <si>
@@ -984,21 +1164,6 @@
   </si>
   <si>
     <t>case_investigation</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Medic ID</t>
-  </si>
-  <si>
-    <t>select-contact type-suspected_case-create</t>
-  </si>
-  <si>
-    <t>${_id}</t>
-  </si>
-  <si>
-    <t>${name}</t>
   </si>
 </sst>
 </file>
@@ -1253,189 +1418,7 @@
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <fill>
         <patternFill>
@@ -2410,21 +2393,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z654"/>
+  <dimension ref="A1:Z682"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="81.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="71" customWidth="1"/>
@@ -2611,7 +2594,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2644,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2736,18 +2719,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>290</v>
+        <v>181</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2773,15 +2756,17 @@
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>291</v>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2806,15 +2791,17 @@
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>181</v>
+      <c r="B11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2836,18 +2823,20 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>183</v>
+      <c r="B12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2869,18 +2858,20 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>185</v>
+      <c r="B13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2901,15 +2892,21 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2926,16 +2923,25 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2952,122 +2958,199 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3078,31 +3161,32 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3112,69 +3196,137 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -3184,25 +3336,32 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -3212,31 +3371,32 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3246,165 +3406,207 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-    </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3414,60 +3616,66 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>21</v>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3478,31 +3686,32 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3512,407 +3721,328 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="F38" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="F39" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="F40" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+    </row>
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+    </row>
+    <row r="46" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="C49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3933,1905 +4063,2718 @@
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>281</v>
+      </c>
+      <c r="E51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-    </row>
-    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-    </row>
-    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-    </row>
-    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-    </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-    </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="15"/>
+      <c r="B56" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+    </row>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-    </row>
-    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-    </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-    </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="F66" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="F67" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="F68" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+    </row>
+    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+    </row>
+    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+    </row>
+    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-    </row>
-    <row r="66" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B76" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+    </row>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+    </row>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+    </row>
+    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+    </row>
+    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+    </row>
+    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
+    </row>
+    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+    </row>
+    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+    </row>
+    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+    </row>
+    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+    </row>
+    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+    </row>
+    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+    </row>
+    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+    </row>
+    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+    </row>
+    <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+    </row>
+    <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+    </row>
+    <row r="94" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="G98" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="14" t="s">
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="G70" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="31" t="s">
+      <c r="B120" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
+      <c r="V126" s="18"/>
+      <c r="W126" s="18"/>
+      <c r="X126" s="18"/>
+      <c r="Y126" s="18"/>
+    </row>
+    <row r="127" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="21"/>
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21"/>
+      <c r="S131" s="21"/>
+      <c r="T131" s="21"/>
+      <c r="U131" s="21"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+      <c r="Y131" s="21"/>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F132" t="s">
+        <v>73</v>
+      </c>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="12"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="12"/>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="12"/>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="12"/>
+      <c r="Y134" s="12"/>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="12"/>
+      <c r="Y135" s="12"/>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="U137" s="12"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="12"/>
+      <c r="X137" s="12"/>
+      <c r="Y137" s="12"/>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="12"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12"/>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12"/>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="12"/>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="12"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="12"/>
+      <c r="W140" s="12"/>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12"/>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D74"/>
-      <c r="E74" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="32" t="s">
+      <c r="F141" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D76"/>
-      <c r="E76" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
+      <c r="F143" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D89"/>
-      <c r="E89" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12"/>
-      <c r="U96" s="12"/>
-      <c r="V96" s="12"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="12"/>
-      <c r="Y96" s="12"/>
-    </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-    </row>
-    <row r="99" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E100" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E101" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E102" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="21"/>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F104" t="s">
-        <v>72</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
-      <c r="U106" s="12"/>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-      <c r="U107" s="12"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-    </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-    </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
-      <c r="U110" s="12"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="12"/>
-    </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
-      <c r="U111" s="12"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="12"/>
-    </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-      <c r="U112" s="12"/>
-      <c r="V112" s="12"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="12"/>
-    </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12"/>
-      <c r="U113" s="12"/>
-      <c r="V113" s="12"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="12"/>
-      <c r="Y113" s="12"/>
-    </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
-      <c r="U114" s="12"/>
-      <c r="V114" s="12"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="12"/>
-    </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
-      <c r="S115" s="12"/>
-      <c r="T115" s="12"/>
-      <c r="U115" s="12"/>
-      <c r="V115" s="12"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="12"/>
-      <c r="Y115" s="12"/>
-    </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B118" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
-      <c r="U118" s="12"/>
-      <c r="V118" s="12"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="12"/>
-      <c r="Y118" s="12"/>
-    </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
-      <c r="U119" s="12"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="12"/>
-    </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
-      <c r="S120" s="12"/>
-      <c r="T120" s="12"/>
-      <c r="U120" s="12"/>
-      <c r="V120" s="12"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="12"/>
-    </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6326,307 +7269,335 @@
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
+  <conditionalFormatting sqref="A126">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
+  <conditionalFormatting sqref="A131">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52 A29:N33">
-    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E80 A57:N61">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52 A29:N33">
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
+  <conditionalFormatting sqref="E80 A57:N61">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="76" priority="84">
-      <formula>AND(#REF!="begin group", NOT($B52 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="75" priority="85">
-      <formula>AND(#REF!="begin repeat", NOT($B52 = ""))</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="74" priority="86">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="73" priority="87">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="53" priority="67">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>AND(#REF!="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="49" priority="59">
+      <formula>AND(#REF!="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="47" priority="61">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>AND(#REF!="begin group", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>AND(#REF!="begin repeat", NOT($B102 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="41" priority="55">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>AND(#REF!="begin group", NOT($B107 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>AND(#REF!="begin repeat", NOT($B107 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>AND(#REF!="begin group", NOT($B112 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>AND(#REF!="begin repeat", NOT($B112 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:F61">
+    <cfRule type="expression" dxfId="28" priority="14">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C61">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B61">
+    <cfRule type="expression" dxfId="26" priority="17">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A61">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:H61">
+    <cfRule type="expression" dxfId="24" priority="19">
+      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:F61">
+    <cfRule type="expression" dxfId="23" priority="20">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F61 A57:D61">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F61 A57:D61">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>AND($E57 = "", $A57 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E61">
+    <cfRule type="expression" dxfId="18" priority="25">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:I61">
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>AND($I57 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="15" priority="29">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:N61">
+    <cfRule type="expression" dxfId="13" priority="31">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>AND(#REF!="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>AND(#REF!="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND(#REF!="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(#REF!="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
-      <formula>"note"</formula>
+    <cfRule type="expression" dxfId="2" priority="73">
+      <formula>AND(#REF!="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="70" priority="78">
-      <formula>AND(#REF!="begin group", NOT($B59 = ""))</formula>
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>AND(#REF!="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="69" priority="79">
-      <formula>AND(#REF!="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="68" priority="80">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="67" priority="81">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="64" priority="72">
-      <formula>AND(#REF!="begin group", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="63" priority="73">
-      <formula>AND(#REF!="begin repeat", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="62" priority="74">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="61" priority="75">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="57" priority="61">
-      <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="56" priority="62">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="55" priority="63">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="51" priority="55">
-      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="50" priority="56">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="49" priority="57">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:F33">
-    <cfRule type="expression" dxfId="48" priority="34">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C33">
-    <cfRule type="expression" dxfId="47" priority="36">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B33">
-    <cfRule type="expression" dxfId="46" priority="37">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A33">
-    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H33">
-    <cfRule type="expression" dxfId="44" priority="39">
-      <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:F33">
-    <cfRule type="expression" dxfId="43" priority="40">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F33 A29:D33">
-    <cfRule type="expression" dxfId="42" priority="41">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F33 A29:D33">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E33">
-    <cfRule type="expression" dxfId="40" priority="43">
-      <formula>AND($E29 = "", $A29 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E33">
-    <cfRule type="expression" dxfId="39" priority="44">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E33">
-    <cfRule type="expression" dxfId="38" priority="45">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:N33">
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I33">
-    <cfRule type="expression" dxfId="36" priority="48">
-      <formula>AND($I29 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:N33">
-    <cfRule type="expression" dxfId="35" priority="49">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:N33">
-    <cfRule type="expression" dxfId="34" priority="50">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:N33">
-    <cfRule type="expression" dxfId="33" priority="51">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="32" priority="29">
-      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="31" priority="30">
-      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="expression" dxfId="29" priority="32">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>AND(#REF!="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>AND(#REF!="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="22" priority="93">
-      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="21" priority="95">
-      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B33">
-    <cfRule type="expression" dxfId="20" priority="126">
-      <formula>COUNTIF($B$2:$B$975,B29)&gt;1</formula>
+  <conditionalFormatting sqref="B57:B61">
+    <cfRule type="expression" dxfId="0" priority="106">
+      <formula>COUNTIF($B$2:$B$1003,B57)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D29:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D57:D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6658,7 +7629,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
@@ -6670,7 +7641,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -6694,13 +7665,13 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -6726,13 +7697,13 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -6758,13 +7729,13 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -6790,13 +7761,13 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -6848,13 +7819,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -6880,13 +7851,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -6938,13 +7909,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -6970,13 +7941,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -7028,13 +7999,13 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -7060,178 +8031,178 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7241,35 +8212,35 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -7287,7 +8258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7306,25 +8277,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7348,23 +8319,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44900.865419560185</v>
+        <v>44880.024412962965</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8373,15 +9344,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="11"/>
@@ -8413,7 +9384,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -8432,7 +9403,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="27"/>
@@ -8451,7 +9422,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="28"/>
@@ -8470,7 +9441,7 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="29"/>
@@ -8489,7 +9460,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="30"/>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Malaria_Covid_CHV Commtest Server_Server 2\Revised Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCD4D6-A621-4BAF-A7BA-F5BA51CDC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24250EB9-0A47-44DE-A50E-3E80D8988B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="340">
   <si>
     <t>type</t>
   </si>
@@ -449,12 +441,6 @@
     <t>Fourth question color</t>
   </si>
   <si>
-    <t>select_multiple symptoms_bi</t>
-  </si>
-  <si>
-    <t>bi</t>
-  </si>
-  <si>
     <t>select_multiple symptoms_cov</t>
   </si>
   <si>
@@ -467,39 +453,18 @@
     <t>tb</t>
   </si>
   <si>
-    <t>bi_suspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) </t>
-  </si>
-  <si>
     <t>tb_suspect</t>
   </si>
   <si>
-    <t>(count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0)</t>
-  </si>
-  <si>
     <t>cov_suspect</t>
   </si>
   <si>
-    <t>(count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${tb}) = 0)</t>
-  </si>
-  <si>
-    <t>count-selected(${tb}) &lt;1 and count-selected(${bi}) &lt;1 and count-selected(${cov}) &lt;1</t>
-  </si>
-  <si>
-    <t>count-selected(${tb}) &lt;1 and count-selected(${bi}) =1 and count-selected(${cov}) &lt;1</t>
-  </si>
-  <si>
     <t>&lt;b&gt;BI-DIRECTIONAL SCREENING&lt;/b&gt;</t>
   </si>
   <si>
     <t>screening</t>
   </si>
   <si>
-    <t>Have you experienced any of the following (common)</t>
-  </si>
-  <si>
     <t>Have you experienced any of the following (covid specific)</t>
   </si>
   <si>
@@ -521,9 +486,6 @@
     <t>search</t>
   </si>
   <si>
-    <t>symptoms_bi</t>
-  </si>
-  <si>
     <t>Cough of any duration</t>
   </si>
   <si>
@@ -632,243 +594,39 @@
     <t xml:space="preserve">COVID-19 test result </t>
   </si>
   <si>
-    <t xml:space="preserve">(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0) </t>
-  </si>
-  <si>
-    <t>count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 2 and selected(${cov_test},'Negative')</t>
-  </si>
-  <si>
     <t>lab</t>
   </si>
   <si>
     <t>date_spec_coll</t>
   </si>
   <si>
-    <t>selected(${bi},'cough')</t>
-  </si>
-  <si>
-    <t>selected(${bi},'fever')</t>
-  </si>
-  <si>
-    <t>selected(${bi},'chest')</t>
-  </si>
-  <si>
     <t>selected(${tb},'sweats')</t>
   </si>
   <si>
     <t>selected(${tb},'weight_sy')</t>
   </si>
   <si>
-    <t>db:trace_contact</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t>What is the traveller's name?</t>
-  </si>
-  <si>
     <t>db-object</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>contact_type</t>
-  </si>
-  <si>
-    <t>Contact Type</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Type of Contact</t>
-  </si>
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>Case ID</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
-    <t>Case Name</t>
-  </si>
-  <si>
-    <t>National ID Number</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>Passport Number</t>
-  </si>
-  <si>
-    <t>alien_number</t>
-  </si>
-  <si>
-    <t>Alien Number</t>
-  </si>
-  <si>
-    <t>s_name</t>
-  </si>
-  <si>
-    <t>f_name</t>
-  </si>
-  <si>
-    <t>o_name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Other name(s)</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>dob_known</t>
-  </si>
-  <si>
-    <t>Does the contact know their date of birth?</t>
-  </si>
-  <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>alternate_phone</t>
-  </si>
-  <si>
-    <t>Alternate Phone</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>subcounty</t>
-  </si>
-  <si>
-    <t>Sub County</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>Village/ township of residence</t>
-  </si>
-  <si>
-    <t>pick_up</t>
-  </si>
-  <si>
-    <t>Pick up point</t>
-  </si>
-  <si>
-    <t>residence</t>
-  </si>
-  <si>
-    <t>Residence</t>
-  </si>
-  <si>
-    <t>nearest_health_center</t>
-  </si>
-  <si>
-    <t>Nearest Health Centre</t>
-  </si>
-  <si>
-    <t>kin_name</t>
-  </si>
-  <si>
-    <t>Next of Kin Name</t>
-  </si>
-  <si>
-    <t>kin_phone_number</t>
-  </si>
-  <si>
-    <t>kin_relationship</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Phone Nember</t>
-  </si>
-  <si>
-    <t>nhif_cover</t>
-  </si>
-  <si>
-    <t>NHIF cover</t>
-  </si>
-  <si>
     <t>rtpcr</t>
   </si>
   <si>
     <t>note_prob</t>
   </si>
   <si>
-    <t>selected(${cov},'breath')</t>
-  </si>
-  <si>
-    <t>selected(${cov},'fatigue')</t>
-  </si>
-  <si>
-    <t>selected(${cov},'muscle')</t>
-  </si>
-  <si>
-    <t>selected(${cov},'headache')</t>
-  </si>
-  <si>
     <t>selected(${cov},'taste')</t>
   </si>
   <si>
@@ -878,9 +636,6 @@
     <t>selected(${cov},'nose')</t>
   </si>
   <si>
-    <t>selected(${cov},'vomiting')</t>
-  </si>
-  <si>
     <t>selected(${cov},'diarrhoea')</t>
   </si>
   <si>
@@ -926,9 +681,6 @@
     <t>concat(${username},'-',${monotonic_counter})</t>
   </si>
   <si>
-    <t>national_id</t>
-  </si>
-  <si>
     <t>RT-PCR TESTING</t>
   </si>
   <si>
@@ -938,9 +690,6 @@
     <t>ag_test</t>
   </si>
   <si>
-    <t>selected(${testing_lab},'Ag-RDT')</t>
-  </si>
-  <si>
     <t>Ag-RDT COVID-19 test is **${cov_test}**</t>
   </si>
   <si>
@@ -968,9 +717,6 @@
     <t>Alien Number:${alien_number}</t>
   </si>
   <si>
-    <t>DOES NOT HAVE ANY SYMPTOMS FOR COVID-19 OR TB</t>
-  </si>
-  <si>
     <t>asym_nasal</t>
   </si>
   <si>
@@ -980,12 +726,6 @@
     <t>Test for COVID-19</t>
   </si>
   <si>
-    <t xml:space="preserve">${none}='DOES NOT HAVE ANY SYMPTOMS FOR COVID-19 OR TB' </t>
-  </si>
-  <si>
-    <t>(count-selected(${bi}) &gt;= 2 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) &gt;= 0 and count-selected(${cov}) &gt;= 1) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${cov}) = 0) or (count-selected(${tb}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${cov}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0) or (count-selected(${cov}) &gt;= 1 and count-selected(${bi}) = 1 and count-selected(${tb}) = 0) or (count-selected(${cov}) =0 and count-selected(${bi}) = 0 and count-selected(${tb}) = 0)</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
@@ -1049,18 +789,9 @@
     <t>SAMPLE COLLECTION LAB</t>
   </si>
   <si>
-    <t>Test for COVID-19 and test/refer for TB testing</t>
-  </si>
-  <si>
     <t>${test_place}='hf_lab'</t>
   </si>
   <si>
-    <t>Ag-RDT TESTING AT HH</t>
-  </si>
-  <si>
-    <t>Ag-RDT TESTING AT HF</t>
-  </si>
-  <si>
     <t>Forward case to the link HF for follow-up by the TB programme</t>
   </si>
   <si>
@@ -1164,6 +895,255 @@
   </si>
   <si>
     <t>case_investigation</t>
+  </si>
+  <si>
+    <t>symptoms_mal</t>
+  </si>
+  <si>
+    <t>symptoms_all</t>
+  </si>
+  <si>
+    <t>symptoms_covtb</t>
+  </si>
+  <si>
+    <t>symptoms_covmal</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>History of travel</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>Pregnant Woman</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following (common to all 3)</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following (Malaria specific)</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following (common to COVID-19 and TB)</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following (common to COVID-19 and Malaria)</t>
+  </si>
+  <si>
+    <t>select_multiple symptoms_all</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>select_multiple symptoms_covtb</t>
+  </si>
+  <si>
+    <t>covtb</t>
+  </si>
+  <si>
+    <t>select_multiple symptoms_covmal</t>
+  </si>
+  <si>
+    <t>covmal</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>select_multiple symptoms_mal</t>
+  </si>
+  <si>
+    <t>DOES NOT HAVE ANY SYMPTOMS FOR COVID-19, TB OR MALARIA</t>
+  </si>
+  <si>
+    <t>COVID-19 SUSPECT AND MALARIA SUSPECT</t>
+  </si>
+  <si>
+    <t>MALARIA SUSPECT</t>
+  </si>
+  <si>
+    <t>all_suspect</t>
+  </si>
+  <si>
+    <t>COVID-19 SUSPECT, MALARIA SUSPECT AND TB PRESUMPTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count-selected(${tb}) &lt;1 and count-selected(${cov}) &lt;1 and count-selected(${covmal}) &lt;1 and count-selected(${mal}) and (count-selected(${covtb}) =1 or count-selected(${all}=1) </t>
+  </si>
+  <si>
+    <t>count-selected(${tb}) &lt;1 and count-selected(${covtb}) &lt;1 and count-selected(${cov}) &lt;1 and count-selected(${covmal}) &lt;1 and count-selected(${mal}) &lt;1</t>
+  </si>
+  <si>
+    <t>(count-selected(${tb}) &gt;= 1 and count-selected(${covtb}) = 0 and count-selected(${cov}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) = 0 and count-selected(${all}) = 0) or 
+(count-selected(${tb}) &gt;= 1 and count-selected(${covtb}) = 1 and count-selected(${cov}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) = 0 and count-selected(${all} = 0) or  
+(count-selected(${tb}) &gt;= 1 and count-selected(${covtb}) = 0 and count-selected(${cov}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) = 0 and count-selected(${all} = 1)</t>
+  </si>
+  <si>
+    <t>(count-selected(${cov}) &gt;= 1 and count-selected(${covtb}) = 0 and count-selected(${all}) = 0 and count-selected(${tb}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) = 0) or 
+(count-selected(${cov}) &gt;= 1 and count-selected(${covtb}) = 1 and count-selected(${all}) = 0 and  count-selected(${tb}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) = 0) or
+(count-selected(${cov}) &gt;= 1 and count-selected(${covtb}) = 0 and count-selected(${all}) = 1 and  count-selected(${tb}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) = 0) or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(count-selected(${mal}) &gt;= 2 and count-selected(${covmal}) = 0 and count-selected(${all}) = 0 and count-selected(${tb}) = 0 and count-selected(${covtb}) = 0 and count-selected(${cov}) = 0) or 
+(count-selected(${mal}) &gt;= 1 and count-selected(${covmal}) = 0 and count-selected(${all}) = 1 and count-selected(${tb}) = 0 and count-selected(${covtb}) = 0 and count-selected(${cov}) = 0) or
+</t>
+  </si>
+  <si>
+    <t>(count-selected(${covtb}) = 2 and count-selected(${cov}) &gt;= 0 and count-selected(${covmal}) = 0 and count-selected(${tb}) &gt;= 0 and count-selected(${all}) &gt;= 0 and count-selected(${mal}) = 0) or 
+(count-selected(${covtb}) = 1 and count-selected(${cov}) &gt;= 0 and count-selected(${covmal}) = 0 and count-selected(${tb}) &gt;= 0 and count-selected(${all}) = 1 and count-selected(${mal}) = 0) or 
+(count-selected(${covtb}) = 0 and count-selected(${cov}) &gt; 0 and count-selected(${covmal}) = 0 and count-selected(${tb}) &gt; 0 and count-selected(${all}) = 0 and count-selected(${mal}) = 0) or 
+(count-selected(${covtb}) &gt; 0 and count-selected(${cov}) &gt; 0 and count-selected(${covmal}) = 0 and count-selected(${tb}) &gt; 0 and count-selected(${all}) &gt; 0 and count-selected(${mal}) = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(count-selected(${covtb}) = 0 and count-selected(${cov}) &gt; 0 and count-selected(${covmal}) = 0 and count-selected(${tb}) = 0 and count-selected(${all}) = 0 and count-selected(${mal}) &gt; 0) or 
+(count-selected(${covtb}) = 0 and count-selected(${cov}) = 0 and count-selected(${covmal}) &gt; 0 and count-selected(${tb}) = 0 and count-selected(${all}) = 1 and count-selected(${mal}) &gt; 0) or 
+(count-selected(${covtb}) = 0 and count-selected(${cov}) = 0 and count-selected(${covmal}) &gt; 0 and count-selected(${tb}) = 0 and count-selected(${all}) = 0 and count-selected(${mal}) &gt; 0) or 
+(count-selected(${covtb}) = 0 and count-selected(${cov}) &gt; 0 and count-selected(${covmal}) &gt; 0 and count-selected(${tb}) &gt; 0 and count-selected(${all}) = 0 and count-selected(${mal}) &gt; 0) or 
+(count-selected(${covtb}) = 0 and count-selected(${cov}) &gt; 0 and count-selected(${covmal}) &gt; 0 and count-selected(${tb}) = 0 and count-selected(${all}) &gt; 0 and count-selected(${mal}) = 0) or
+(count-selected(${covtb}) = 0 and count-selected(${cov}) = 0 and count-selected(${covmal}) &gt; 0 and count-selected(${tb}) = 0 and count-selected(${all}) &gt; 0 and count-selected(${mal}) = 0) </t>
+  </si>
+  <si>
+    <t>(count-selected(${covtb}) = 2 and count-selected(${cov}) &gt;= 0 and count-selected(${covmal}) &gt;= 0 and count-selected(${tb}) &gt;= 0 and count-selected(${all}) =1 and count-selected(${mal}) = 0) or 
+(count-selected(${covtb}) = 1 and count-selected(${all}) =1 and count-selected(${covmal}) &gt;= 0 and count-selected(${cov}) &gt;= 0 and count-selected(${tb}) &gt;= 0  and count-selected(${mal}) &gt; 0) or 
+(count-selected(${tb}) &gt; 0 and count-selected(${cov}) &gt; 0 and count-selected(${all}) &gt;= 0 and count-selected(${covtb}) = 0 and count-selected(${covmal}) = 0 and count-selected(${mal}) &gt; 0) or 
+(count-selected(${tb}) &gt; 0 and count-selected(${cov}) &gt; 0 and count-selected(${all}) &gt;= 0 and count-selected(${covtb}) = 0 and count-selected(${covmal}) &gt; 0 and count-selected(${mal}) = 0)</t>
+  </si>
+  <si>
+    <t>mal_suspect</t>
+  </si>
+  <si>
+    <t>covtb_suspect</t>
+  </si>
+  <si>
+    <t>covmal_suspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${none}='DOES NOT HAVE ANY SYMPTOMS FOR COVID-19, MALARIA OR TB' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${cov_suspect}='COVID-19 SUSPECT' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${tb_suspect}='TB PRESUMPTIVE' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${covtb_suspect}='COVID-19 SUSPECT AND TB PRESUMPTIVE' </t>
+  </si>
+  <si>
+    <t>Test for COVID-19 and Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${mal_suspect}='MALARIA SUSPECT' </t>
+  </si>
+  <si>
+    <t>mal_nasal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${covmal_suspect}='COVID-19 SUSPECT AND MALARIA SUSPECT' </t>
+  </si>
+  <si>
+    <t>mal_nasal_sput</t>
+  </si>
+  <si>
+    <t>Test for COVID-19 and Malaria and refer for TB testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${all_suspect}='COVID-19 SUSPECT, MALARIA SUSPECT AND TB PRESUMPTIVE' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALARIA test result </t>
+  </si>
+  <si>
+    <t>mal_test</t>
+  </si>
+  <si>
+    <t>Ag-RDT and mRDT TESTING AT HH</t>
+  </si>
+  <si>
+    <t>Ag-RDT and mRDT TESTING AT HF</t>
+  </si>
+  <si>
+    <t>mal_test_hf</t>
+  </si>
+  <si>
+    <t>mal_test_rpt</t>
+  </si>
+  <si>
+    <t>Repeat the MALARIA test and update the result</t>
+  </si>
+  <si>
+    <t>Repeat the COVID-19 test and update the result</t>
+  </si>
+  <si>
+    <t>selected(${mal_test},'Invalid')</t>
+  </si>
+  <si>
+    <t>m-RDT MALARIA test is **${mal_test}**</t>
+  </si>
+  <si>
+    <t>selected(${all},'fever')</t>
+  </si>
+  <si>
+    <t>selected(${covtb},'cough')</t>
+  </si>
+  <si>
+    <t>selected(${covtb},'chest')</t>
+  </si>
+  <si>
+    <t>selected(${covmal},'breath')</t>
+  </si>
+  <si>
+    <t>selected(${covmal},'fatigue')</t>
+  </si>
+  <si>
+    <t>selected(${covmal},'muscle')</t>
+  </si>
+  <si>
+    <t>selected(${covmal},'headache')</t>
+  </si>
+  <si>
+    <t>selected(${covmal},'vomiting')</t>
+  </si>
+  <si>
+    <t>selected(${mal},'travel')</t>
+  </si>
+  <si>
+    <t>selected(${mal},'pg')</t>
+  </si>
+  <si>
+    <t>selected(${testing_lab},'household')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${mal}='Test for COVID-19 and Malaria' or ${mal_nasal}='Test for COVID-19 and Malaria' or ${mal_nasal_sput}='Test for COVID-19 and Malaria and refer for TB testing' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${sput}='Test for COVID-19 and refer for TB testing' or ${sput_nasal}='Test for COVID-19 and refer for TB testing' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${sput}='Test for COVID-19 and refer for TB testing' or ${sput_nasal}='Test for COVID-19 and refer for TB testing' or ${nasal}='Test for COVID-19' or 
+${asym_nasal}='Test for COVID-19' or ${mal}='Test for COVID-19 and Malaria' or ${mal_nasal}='Test for COVID-19 and Malaria' or ${mal_nasal_sput}='Test for COVID-19 and Malaria and refer for TB testing' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(count-selected(${al}) &gt;= 0 and count-selected(${covtb}) &gt;= 1 and count-selected(${cov}) &gt;= 1 and count-selected(${covmal}) &gt;= 1 and selected(${cov_test},'Negative')) </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1411,6 +1391,12 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2393,16 +2379,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z682"/>
+  <dimension ref="A1:Z672"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
@@ -2719,18 +2705,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2754,19 +2740,17 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2789,19 +2773,17 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2824,19 +2806,17 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2859,19 +2839,17 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2892,21 +2870,15 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2923,25 +2895,16 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2958,199 +2921,122 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>196</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>198</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3161,32 +3047,31 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3196,137 +3081,69 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -3336,32 +3153,25 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -3371,32 +3181,31 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3406,207 +3215,165 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3616,66 +3383,60 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>22</v>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3686,32 +3447,31 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3721,428 +3481,570 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="F39" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="F40" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="F41" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="F42" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="F43" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+    </row>
+    <row r="50" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+    </row>
+    <row r="51" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-    </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-    </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-    </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-    </row>
-    <row r="46" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E51" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>282</v>
-      </c>
-      <c r="E52" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" t="s">
-        <v>279</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4168,15 +4070,23 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="A55" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -4197,1355 +4107,1164 @@
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
+      <c r="B58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>331</v>
+        <v>153</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
+        <v>204</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
+        <v>204</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
-        <v>335</v>
+        <v>48</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
+        <v>205</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
     </row>
     <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="15"/>
+      <c r="E63" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+    </row>
+    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+    </row>
+    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+    </row>
+    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+    </row>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="F66" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="F67" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="F68" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
+      <c r="B69" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+    </row>
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32" t="s">
+      <c r="B70" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+    </row>
+    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
+      <c r="B71" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+    </row>
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
+      <c r="B72" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+    </row>
+    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
+      <c r="B73" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+    </row>
+    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
+      <c r="B74" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="A75" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>308</v>
+      </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="E75" s="35" t="s">
+        <v>309</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>302</v>
-      </c>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="15" t="s">
-        <v>276</v>
-      </c>
+      <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+    </row>
+    <row r="78" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="15"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="I79" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
+      <c r="I80" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F81" s="15"/>
+      <c r="B81" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
-    </row>
-    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="32" t="s">
+    </row>
+    <row r="82" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-    </row>
-    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="15"/>
+      <c r="C82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="G82" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
-    </row>
-    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
+    </row>
+    <row r="84" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
-    </row>
-    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="B89" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
-    </row>
-    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
-    </row>
-    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B92" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="15" t="s">
+      <c r="D94" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F98" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
-    </row>
-    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="15"/>
-    </row>
-    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="15"/>
-    </row>
-    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
-    </row>
-    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
-    </row>
-    <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="B99" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
-    </row>
-    <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="15"/>
-    </row>
-    <row r="94" spans="1:26" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="7"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="G98" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5557,20 +5276,18 @@
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="D102"/>
-      <c r="E102" s="37" t="s">
-        <v>308</v>
-      </c>
+      <c r="E102"/>
       <c r="F102" s="31" t="s">
         <v>21</v>
       </c>
@@ -5579,43 +5296,39 @@
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>44</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D103"/>
       <c r="E103" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>276</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F103"/>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="33" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
@@ -5623,7 +5336,7 @@
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
         <v>29</v>
       </c>
@@ -5637,10 +5350,10 @@
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
+    <row r="106" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -5649,20 +5362,18 @@
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="D107"/>
-      <c r="E107" s="37" t="s">
-        <v>312</v>
-      </c>
+      <c r="E107"/>
       <c r="F107" s="31" t="s">
         <v>21</v>
       </c>
@@ -5671,56 +5382,44 @@
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>44</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D108"/>
       <c r="E108" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>276</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F108"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>316</v>
-      </c>
+    <row r="109" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="D109"/>
-      <c r="E109" s="33" t="s">
-        <v>172</v>
-      </c>
+      <c r="E109"/>
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
+    <row r="110" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
@@ -5729,240 +5428,406 @@
       <c r="I110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="31" t="s">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F112" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
+      <c r="B111" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
+      <c r="B112" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="31" t="s">
+      <c r="B113" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+      <c r="V113" s="18"/>
+      <c r="W113" s="18"/>
+      <c r="X113" s="18"/>
+      <c r="Y113" s="18"/>
+    </row>
+    <row r="114" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E115" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F119" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="F121" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D121"/>
-      <c r="E121" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="1:25" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
+      <c r="F124" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
       <c r="N124" s="12"/>
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
@@ -5977,17 +5842,22 @@
       <c r="Y124" s="12"/>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" t="s">
-        <v>63</v>
+      <c r="B125" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="D125" s="5"/>
-      <c r="F125" s="12"/>
+      <c r="E125" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -6009,144 +5879,242 @@
       <c r="Y125" s="12"/>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
-      <c r="T126" s="18"/>
-      <c r="U126" s="18"/>
-      <c r="V126" s="18"/>
-      <c r="W126" s="18"/>
-      <c r="X126" s="18"/>
-      <c r="Y126" s="18"/>
-    </row>
-    <row r="127" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B126" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B127" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="B127" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
       <c r="I127" s="12"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E128" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="B128" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="12"/>
+      <c r="Y128" s="12"/>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E129" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+      <c r="B129" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E130" t="s">
-        <v>279</v>
-      </c>
+      <c r="B130" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="12"/>
+      <c r="U130" s="12"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="21"/>
-      <c r="O131" s="21"/>
-      <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21"/>
-      <c r="S131" s="21"/>
-      <c r="T131" s="21"/>
-      <c r="U131" s="21"/>
-      <c r="V131" s="21"/>
-      <c r="W131" s="21"/>
-      <c r="X131" s="21"/>
-      <c r="Y131" s="21"/>
+      <c r="B131" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F132" t="s">
+        <v>164</v>
+      </c>
+      <c r="F132" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G132" s="12"/>
@@ -6174,14 +6142,14 @@
         <v>48</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>73</v>
@@ -6210,15 +6178,15 @@
       <c r="A134" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>139</v>
+      <c r="B134" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>268</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>73</v>
@@ -6247,15 +6215,15 @@
       <c r="A135" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B135" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>142</v>
+      <c r="B135" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>270</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>73</v>
@@ -6285,14 +6253,14 @@
         <v>48</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>73</v>
@@ -6321,15 +6289,13 @@
       <c r="A137" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B137" s="32" t="s">
-        <v>145</v>
-      </c>
+      <c r="B137" s="32"/>
       <c r="C137" s="32" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>73</v>
@@ -6358,26 +6324,24 @@
       <c r="A138" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B138" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
-      <c r="M138" s="12"/>
+      <c r="B138" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
       <c r="P138" s="12"/>
@@ -6392,389 +6356,31 @@
       <c r="Y138" s="12"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="12"/>
-      <c r="P139" s="12"/>
-      <c r="Q139" s="12"/>
-      <c r="R139" s="12"/>
-      <c r="S139" s="12"/>
-      <c r="T139" s="12"/>
-      <c r="U139" s="12"/>
-      <c r="V139" s="12"/>
-      <c r="W139" s="12"/>
-      <c r="X139" s="12"/>
-      <c r="Y139" s="12"/>
-    </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="12"/>
-      <c r="Q140" s="12"/>
-      <c r="R140" s="12"/>
-      <c r="S140" s="12"/>
-      <c r="T140" s="12"/>
-      <c r="U140" s="12"/>
-      <c r="V140" s="12"/>
-      <c r="W140" s="12"/>
-      <c r="X140" s="12"/>
-      <c r="Y140" s="12"/>
-    </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="12"/>
-      <c r="P141" s="12"/>
-      <c r="Q141" s="12"/>
-      <c r="R141" s="12"/>
-      <c r="S141" s="12"/>
-      <c r="T141" s="12"/>
-      <c r="U141" s="12"/>
-      <c r="V141" s="12"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="12"/>
-      <c r="Y141" s="12"/>
-    </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
-      <c r="Q142" s="12"/>
-      <c r="R142" s="12"/>
-      <c r="S142" s="12"/>
-      <c r="T142" s="12"/>
-      <c r="U142" s="12"/>
-      <c r="V142" s="12"/>
-      <c r="W142" s="12"/>
-      <c r="X142" s="12"/>
-      <c r="Y142" s="12"/>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
-      <c r="Q143" s="12"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
-      <c r="T143" s="12"/>
-      <c r="U143" s="12"/>
-      <c r="V143" s="12"/>
-      <c r="W143" s="12"/>
-      <c r="X143" s="12"/>
-      <c r="Y143" s="12"/>
-    </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-      <c r="Q144" s="12"/>
-      <c r="R144" s="12"/>
-      <c r="S144" s="12"/>
-      <c r="T144" s="12"/>
-      <c r="U144" s="12"/>
-      <c r="V144" s="12"/>
-      <c r="W144" s="12"/>
-      <c r="X144" s="12"/>
-      <c r="Y144" s="12"/>
-    </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
-      <c r="Q145" s="12"/>
-      <c r="R145" s="12"/>
-      <c r="S145" s="12"/>
-      <c r="T145" s="12"/>
-      <c r="U145" s="12"/>
-      <c r="V145" s="12"/>
-      <c r="W145" s="12"/>
-      <c r="X145" s="12"/>
-      <c r="Y145" s="12"/>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
-      <c r="Q146" s="12"/>
-      <c r="R146" s="12"/>
-      <c r="S146" s="12"/>
-      <c r="T146" s="12"/>
-      <c r="U146" s="12"/>
-      <c r="V146" s="12"/>
-      <c r="W146" s="12"/>
-      <c r="X146" s="12"/>
-      <c r="Y146" s="12"/>
-    </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
-      <c r="Q147" s="12"/>
-      <c r="R147" s="12"/>
-      <c r="S147" s="12"/>
-      <c r="T147" s="12"/>
-      <c r="U147" s="12"/>
-      <c r="V147" s="12"/>
-      <c r="W147" s="12"/>
-      <c r="X147" s="12"/>
-      <c r="Y147" s="12"/>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-      <c r="Q148" s="12"/>
-      <c r="R148" s="12"/>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12"/>
-      <c r="U148" s="12"/>
-      <c r="V148" s="12"/>
-      <c r="W148" s="12"/>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
-    </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
+      <c r="A139" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7287,317 +6893,307 @@
     <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+  <conditionalFormatting sqref="A118">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80 A57:N61">
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E58 A29:N33">
+    <cfRule type="containsText" dxfId="58" priority="68" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80 A57:N61">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+  <conditionalFormatting sqref="E58 A29:N33">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="56" priority="70">
+      <formula>AND(#REF!="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="55" priority="65">
-      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="55" priority="71">
+      <formula>AND(#REF!="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="54" priority="66">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="54" priority="72">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="53" priority="67">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="53" priority="73">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" dxfId="52" priority="62" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>AND(#REF!="begin group", NOT($B87 = ""))</formula>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="50" priority="64">
+      <formula>AND(#REF!="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="49" priority="59">
-      <formula>AND(#REF!="begin repeat", NOT($B87 = ""))</formula>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="49" priority="65">
+      <formula>AND(#REF!="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="48" priority="60">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="48" priority="66">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="47" priority="61">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="47" priority="67">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="44" priority="52">
-      <formula>AND(#REF!="begin group", NOT($B102 = ""))</formula>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="44" priority="58">
+      <formula>AND(#REF!="begin group", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="43" priority="53">
-      <formula>AND(#REF!="begin repeat", NOT($B102 = ""))</formula>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="43" priority="59">
+      <formula>AND(#REF!="begin repeat", NOT($B86 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="42" priority="54">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="42" priority="60">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="41" priority="55">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>AND(#REF!="begin group", NOT($B107 = ""))</formula>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="38" priority="46">
+      <formula>AND(#REF!="begin group", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>AND(#REF!="begin repeat", NOT($B107 = ""))</formula>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>AND(#REF!="begin repeat", NOT($B92 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="36" priority="42">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="35" priority="43">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>AND(#REF!="begin group", NOT($B112 = ""))</formula>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>AND(#REF!="begin group", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>AND(#REF!="begin repeat", NOT($B112 = ""))</formula>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="31" priority="41">
+      <formula>AND(#REF!="begin repeat", NOT($B98 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="30" priority="36">
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="29" priority="37">
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F61">
-    <cfRule type="expression" dxfId="28" priority="14">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="A29:F33">
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C61">
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+  <conditionalFormatting sqref="C29:C33">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B61">
-    <cfRule type="expression" dxfId="26" priority="17">
-      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+  <conditionalFormatting sqref="B29:B33">
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A61">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+  <conditionalFormatting sqref="A29:A33">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H61">
-    <cfRule type="expression" dxfId="24" priority="19">
-      <formula>AND(NOT($G57 = ""), $H57 = "")</formula>
+  <conditionalFormatting sqref="H29:H33">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F61">
-    <cfRule type="expression" dxfId="23" priority="20">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="A29:F33">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F61 A57:D61">
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+  <conditionalFormatting sqref="F29:F33 A29:D33">
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F61 A57:D61">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+  <conditionalFormatting sqref="F29:F33 A29:D33">
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>AND($E57 = "", $A57 = "calculate")</formula>
+  <conditionalFormatting sqref="E29:E33">
+    <cfRule type="expression" dxfId="20" priority="29">
+      <formula>AND($E29 = "", $A29 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+  <conditionalFormatting sqref="E29:E33">
+    <cfRule type="expression" dxfId="19" priority="30">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E61">
-    <cfRule type="expression" dxfId="18" priority="25">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $E57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+  <conditionalFormatting sqref="E29:E33">
+    <cfRule type="expression" dxfId="18" priority="31">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
-    <cfRule type="expression" dxfId="17" priority="27">
+  <conditionalFormatting sqref="G29:N33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:I61">
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>AND($I57 = "", #REF! = "calculate")</formula>
+  <conditionalFormatting sqref="I29:I33">
+    <cfRule type="expression" dxfId="16" priority="34">
+      <formula>AND($I29 = "", #REF! = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
-    <cfRule type="expression" dxfId="15" priority="29">
+  <conditionalFormatting sqref="G29:N33">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+  <conditionalFormatting sqref="G29:N33">
+    <cfRule type="expression" dxfId="14" priority="36">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:N61">
-    <cfRule type="expression" dxfId="13" priority="31">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+  <conditionalFormatting sqref="G29:N33">
+    <cfRule type="expression" dxfId="13" priority="37">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>AND(#REF!="begin group", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(#REF!="begin repeat", NOT($B57 = ""))</formula>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND(#REF!="begin group", NOT($B59 = ""))</formula>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>AND(#REF!="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(#REF!="begin repeat", NOT($B59 = ""))</formula>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>AND(#REF!="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E61">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND(#REF!="begin group", NOT($B58 = ""))</formula>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="2" priority="79">
+      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="1" priority="75">
-      <formula>AND(#REF!="begin repeat", NOT($B58 = ""))</formula>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="1" priority="81">
+      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B61">
-    <cfRule type="expression" dxfId="0" priority="106">
-      <formula>COUNTIF($B$2:$B$1003,B57)&gt;1</formula>
+  <conditionalFormatting sqref="B29:B33">
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>COUNTIF($B$2:$B$993,B29)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D57:D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D29:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7609,10 +7205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B31" sqref="B31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,7 +7261,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>44</v>
@@ -7697,7 +7293,7 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
@@ -7819,13 +7415,13 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7851,13 +7447,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7909,13 +7505,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7941,13 +7537,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8002,10 +7598,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8034,106 +7630,117 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>140</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>74</v>
@@ -8141,112 +7748,123 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>160</v>
+        <v>263</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8258,7 +7876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8322,11 +7940,11 @@
         <v>99</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="C2" s="36">
         <f ca="1">NOW()</f>
-        <v>44880.024412962965</v>
+        <v>44998.965732291668</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>

--- a/forms/app/case_investigation.xlsx
+++ b/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Malaria_Covid_CHV Commtest Server_Server 2\Revised Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24250EB9-0A47-44DE-A50E-3E80D8988B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2926A8-DCB1-4D5B-B943-81EE477899B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="347">
   <si>
     <t>type</t>
   </si>
@@ -1144,6 +1144,27 @@
   </si>
   <si>
     <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>national_id</t>
+  </si>
+  <si>
+    <t>National ID Number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>contact_type</t>
+  </si>
+  <si>
+    <t>Contact Type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -2379,11 +2400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z672"/>
+  <dimension ref="A1:Z676"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2740,17 +2761,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2773,17 +2796,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2806,17 +2831,19 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2839,17 +2866,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>168</v>
+        <v>340</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2870,15 +2899,19 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2895,16 +2928,23 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2921,226 +2961,275 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="8" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" t="s">
-        <v>198</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3165,194 +3254,154 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>251</v>
-      </c>
+      <c r="E33" s="37"/>
       <c r="F33" s="37" t="s">
         <v>195</v>
       </c>
@@ -3366,180 +3415,156 @@
       <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="F38" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>273</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="F39" s="32" t="s">
-        <v>125</v>
-      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -3554,86 +3579,90 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="F40" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="F41" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c